--- a/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-UVBQ90J\Desktop\项目进度\hgkj_01\梁卫鸿\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XJT17\Desktop\rj_01_test\hgkj_01\梁卫鸿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CDC259-673A-42C9-8AA1-0CF40FEE0322}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6052DE4-B761-45C0-820E-132882E18E80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="87">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -285,6 +285,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！！编码一定要加注释，否则后期自己改都很麻烦，</t>
@@ -294,6 +295,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>周末两天要进行优化测试以及一些功能的补充</t>
@@ -305,18 +307,22 @@
   <si>
     <t xml:space="preserve"> 21:00</t>
   </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="178" formatCode="h:mm;@"/>
-    <numFmt numFmtId="179" formatCode="[$-804]h:mm"/>
-    <numFmt numFmtId="180" formatCode="[$-804]yyyy\-m\-d"/>
-    <numFmt numFmtId="181" formatCode="[$-804]h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="[$-804]h:mm"/>
+    <numFmt numFmtId="178" formatCode="[$-804]yyyy\-m\-d"/>
+    <numFmt numFmtId="179" formatCode="[$-804]h:mm:ss"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -334,41 +340,48 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="30"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -376,28 +389,33 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="49"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -509,10 +527,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -539,7 +557,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -599,10 +617,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -908,19 +926,19 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="30.375" customWidth="1"/>
-    <col min="8" max="8" width="99.875" customWidth="1"/>
+    <col min="7" max="7" width="30.36328125" customWidth="1"/>
+    <col min="8" max="8" width="99.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -932,7 +950,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="28">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -958,7 +976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -982,7 +1000,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1006,7 +1024,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1028,7 +1046,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -1050,7 +1068,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1074,7 +1092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1094,7 +1112,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1108,7 +1126,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -1124,7 +1142,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -1138,7 +1156,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -1152,7 +1170,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -1166,7 +1184,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -1180,7 +1198,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -1194,7 +1212,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -1208,7 +1226,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -1222,7 +1240,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -1236,7 +1254,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -1250,7 +1268,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -1264,7 +1282,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -1278,7 +1296,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -1292,7 +1310,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -1306,7 +1324,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -1320,7 +1338,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -1334,7 +1352,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -1348,7 +1366,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -1362,7 +1380,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -1376,7 +1394,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -1390,7 +1408,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -1404,7 +1422,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -1418,7 +1436,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -1432,7 +1450,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -1456,7 +1474,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -1478,7 +1496,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="16.5">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -1500,7 +1518,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="16.5">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -1522,7 +1540,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="16.5">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -1536,7 +1554,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="16.5">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -1558,7 +1576,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -1582,7 +1600,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -1604,7 +1622,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -1618,7 +1636,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="16.5">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -1640,7 +1658,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="8"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -1654,7 +1672,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -1668,7 +1686,7 @@
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="16.5">
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="35"/>
@@ -1678,7 +1696,7 @@
       <c r="G45" s="37"/>
       <c r="H45" s="38"/>
     </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="16.5">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="35"/>
@@ -1688,7 +1706,7 @@
       <c r="G46" s="37"/>
       <c r="H46" s="38"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="16.5">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="35"/>
@@ -1698,7 +1716,7 @@
       <c r="G47" s="37"/>
       <c r="H47" s="38"/>
     </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="16.5">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="35"/>
@@ -1708,7 +1726,7 @@
       <c r="G48" s="37"/>
       <c r="H48" s="38"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="16.5">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="35"/>
@@ -1718,7 +1736,7 @@
       <c r="G49" s="37"/>
       <c r="H49" s="38"/>
     </row>
-    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="16.5">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="35"/>
@@ -1728,7 +1746,7 @@
       <c r="G50" s="37"/>
       <c r="H50" s="38"/>
     </row>
-    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="16.5">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="35"/>
@@ -1738,7 +1756,7 @@
       <c r="G51" s="37"/>
       <c r="H51" s="38"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="16.5">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="35"/>
@@ -1748,7 +1766,7 @@
       <c r="G52" s="37"/>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="16.5">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="35"/>
@@ -1776,19 +1794,19 @@
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1800,7 +1818,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1826,7 +1844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1850,7 +1868,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1866,7 +1884,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1888,7 +1906,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -1910,7 +1928,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1924,7 +1942,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1938,7 +1956,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1952,7 +1970,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -1966,7 +1984,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -1980,7 +1998,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -1994,7 +2012,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -2008,7 +2026,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -2022,7 +2040,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2036,7 +2054,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -2050,7 +2068,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -2064,7 +2082,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -2078,7 +2096,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2092,7 +2110,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -2106,7 +2124,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -2120,7 +2138,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -2134,7 +2152,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2148,7 +2166,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -2162,7 +2180,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -2176,7 +2194,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -2190,7 +2208,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -2204,7 +2222,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -2218,7 +2236,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -2232,7 +2250,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -2246,7 +2264,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -2260,7 +2278,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -2274,7 +2292,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -2298,7 +2316,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -2320,7 +2338,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -2340,7 +2358,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -2354,7 +2372,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -2368,7 +2386,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -2382,7 +2400,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -2402,7 +2420,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -2416,7 +2434,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -2430,7 +2448,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -2444,7 +2462,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -2458,7 +2476,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -2483,7 +2501,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2491,23 +2509,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2519,7 +2537,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2545,7 +2563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2569,7 +2587,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2593,7 +2611,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -2613,7 +2631,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -2635,7 +2653,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -2657,7 +2675,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -2679,7 +2697,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -2701,7 +2719,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -2723,7 +2741,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2745,7 +2763,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -2767,7 +2785,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -2787,7 +2805,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -2809,7 +2827,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2831,7 +2849,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -2853,7 +2871,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -2873,7 +2891,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -2895,7 +2913,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2917,7 +2935,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -2939,7 +2957,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -2959,7 +2977,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -2981,7 +2999,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3003,7 +3021,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -3025,7 +3043,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -3045,7 +3063,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -3067,7 +3085,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -3089,7 +3107,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -3109,7 +3127,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -3129,7 +3147,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -3151,7 +3169,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -3171,7 +3189,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -3193,7 +3211,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -3217,7 +3235,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -3239,7 +3257,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -3259,7 +3277,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -3273,7 +3291,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -3287,7 +3305,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -3301,7 +3319,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3315,7 +3333,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -3329,7 +3347,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -3343,7 +3361,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -3357,7 +3375,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -3371,7 +3389,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -3403,19 +3421,19 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3427,7 +3445,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3453,7 +3471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3477,7 +3495,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3501,7 +3519,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -3521,7 +3539,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -3543,7 +3561,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -3565,7 +3583,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -3587,7 +3605,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -3609,7 +3627,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -3631,7 +3649,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -3653,7 +3671,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -3675,7 +3693,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -3697,7 +3715,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -3719,7 +3737,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -3741,7 +3759,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -3763,7 +3781,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -3785,7 +3803,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -3807,7 +3825,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3829,7 +3847,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -3843,7 +3861,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -3865,7 +3883,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -3887,7 +3905,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3909,7 +3927,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -3923,7 +3941,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -3937,7 +3955,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -3951,7 +3969,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -3965,7 +3983,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -3979,7 +3997,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -4001,7 +4019,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -4015,7 +4033,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -4029,7 +4047,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -4045,7 +4063,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -4069,7 +4087,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -4083,7 +4101,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4103,7 +4121,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4117,7 +4135,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4131,7 +4149,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4145,7 +4163,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -4159,7 +4177,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -4173,7 +4191,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -4187,7 +4205,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -4201,7 +4219,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -4215,7 +4233,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -4243,23 +4261,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -4271,7 +4289,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4297,7 +4315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -4321,7 +4339,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4345,7 +4363,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -4367,7 +4385,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -4389,7 +4407,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -4411,7 +4429,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -4433,7 +4451,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -4455,7 +4473,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -4463,19 +4481,21 @@
       <c r="C10" s="4">
         <v>76515</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4">
+        <v>43645</v>
+      </c>
       <c r="E10" s="14">
         <v>0.875</v>
       </c>
       <c r="F10" s="6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4497,7 +4517,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -4511,7 +4531,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -4525,7 +4545,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -4539,7 +4559,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -4561,7 +4581,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -4575,7 +4595,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -4589,7 +4609,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -4603,21 +4623,29 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="6"/>
+      <c r="C19" s="4">
+        <v>43645</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43645</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -4631,7 +4659,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -4645,7 +4673,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -4659,21 +4687,29 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="6"/>
+      <c r="C23" s="4">
+        <v>43645</v>
+      </c>
+      <c r="D23" s="4">
+        <v>43645</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -4687,7 +4723,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -4701,7 +4737,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -4715,7 +4751,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -4729,21 +4765,29 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="6"/>
+      <c r="C28" s="4">
+        <v>43645</v>
+      </c>
+      <c r="D28" s="4">
+        <v>43645</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
       <c r="G28" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -4757,7 +4801,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -4771,7 +4815,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -4785,7 +4829,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -4799,7 +4843,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -4823,7 +4867,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -4845,7 +4889,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4867,7 +4911,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4889,7 +4933,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4903,7 +4947,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4917,7 +4961,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -4939,7 +4983,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -4961,7 +5005,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -4975,35 +5019,51 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="6"/>
+      <c r="C42" s="4">
+        <v>43645</v>
+      </c>
+      <c r="D42" s="4">
+        <v>43645</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1</v>
+      </c>
       <c r="G42" s="7" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="6"/>
+      <c r="C43" s="4">
+        <v>43645</v>
+      </c>
+      <c r="D43" s="4">
+        <v>43645</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
       <c r="G43" s="7" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -5035,19 +5095,19 @@
       <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5059,7 +5119,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5085,7 +5145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -5111,7 +5171,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -5127,7 +5187,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -5149,7 +5209,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -5171,7 +5231,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -5185,7 +5245,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -5199,7 +5259,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -5213,7 +5273,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -5227,7 +5287,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -5241,7 +5301,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -5255,7 +5315,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -5269,7 +5329,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -5283,7 +5343,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -5297,7 +5357,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -5311,7 +5371,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -5325,7 +5385,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -5339,7 +5399,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -5353,7 +5413,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -5367,7 +5427,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -5381,7 +5441,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -5395,7 +5455,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -5409,7 +5469,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -5423,7 +5483,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -5437,7 +5497,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -5451,7 +5511,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -5465,7 +5525,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -5479,7 +5539,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -5493,7 +5553,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -5507,7 +5567,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -5521,7 +5581,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -5535,7 +5595,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -5561,7 +5621,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -5583,7 +5643,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -5601,7 +5661,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5621,7 +5681,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5635,7 +5695,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5649,7 +5709,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -5667,7 +5727,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -5681,7 +5741,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5695,7 +5755,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5709,7 +5769,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -5723,7 +5783,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -5760,18 +5820,18 @@
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -5783,7 +5843,7 @@
       <c r="G1" s="41"/>
       <c r="H1" s="42"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -5809,7 +5869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
@@ -5833,7 +5893,7 @@
       </c>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
@@ -5857,7 +5917,7 @@
       </c>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="22"/>
       <c r="B5" s="23" t="s">
         <v>14</v>
@@ -5879,7 +5939,7 @@
       </c>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="22"/>
       <c r="B6" s="23" t="s">
         <v>15</v>
@@ -5893,7 +5953,7 @@
       </c>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="29"/>
       <c r="B7" s="23" t="s">
         <v>16</v>
@@ -5907,7 +5967,7 @@
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="29"/>
       <c r="B8" s="23" t="s">
         <v>18</v>
@@ -5921,7 +5981,7 @@
       </c>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="29"/>
       <c r="B9" s="23" t="s">
         <v>20</v>
@@ -5935,7 +5995,7 @@
       </c>
       <c r="H9" s="28"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="29"/>
       <c r="B10" s="23" t="s">
         <v>21</v>
@@ -5949,7 +6009,7 @@
       </c>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="29"/>
       <c r="B11" s="23" t="s">
         <v>23</v>
@@ -5963,7 +6023,7 @@
       </c>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="29"/>
       <c r="B12" s="23" t="s">
         <v>24</v>
@@ -5977,7 +6037,7 @@
       </c>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="29"/>
       <c r="B13" s="23" t="s">
         <v>25</v>
@@ -5991,7 +6051,7 @@
       </c>
       <c r="H13" s="28"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="29"/>
       <c r="B14" s="23" t="s">
         <v>26</v>
@@ -6005,7 +6065,7 @@
       </c>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="29"/>
       <c r="B15" s="23" t="s">
         <v>27</v>
@@ -6019,7 +6079,7 @@
       </c>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="29"/>
       <c r="B16" s="23" t="s">
         <v>28</v>
@@ -6033,7 +6093,7 @@
       </c>
       <c r="H16" s="28"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="29"/>
       <c r="B17" s="23" t="s">
         <v>29</v>
@@ -6047,7 +6107,7 @@
       </c>
       <c r="H17" s="28"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="29"/>
       <c r="B18" s="23" t="s">
         <v>30</v>
@@ -6061,7 +6121,7 @@
       </c>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="29"/>
       <c r="B19" s="23" t="s">
         <v>31</v>
@@ -6075,7 +6135,7 @@
       </c>
       <c r="H19" s="28"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="29"/>
       <c r="B20" s="23" t="s">
         <v>32</v>
@@ -6089,7 +6149,7 @@
       </c>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="29"/>
       <c r="B21" s="23" t="s">
         <v>33</v>
@@ -6103,7 +6163,7 @@
       </c>
       <c r="H21" s="28"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="29"/>
       <c r="B22" s="23" t="s">
         <v>34</v>
@@ -6117,7 +6177,7 @@
       </c>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="24"/>
       <c r="B23" s="23" t="s">
         <v>35</v>
@@ -6131,7 +6191,7 @@
       </c>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="29"/>
       <c r="B24" s="23" t="s">
         <v>36</v>
@@ -6145,7 +6205,7 @@
       </c>
       <c r="H24" s="28"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="29"/>
       <c r="B25" s="23" t="s">
         <v>37</v>
@@ -6159,7 +6219,7 @@
       </c>
       <c r="H25" s="28"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="29"/>
       <c r="B26" s="23" t="s">
         <v>38</v>
@@ -6173,7 +6233,7 @@
       </c>
       <c r="H26" s="28"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="29"/>
       <c r="B27" s="23" t="s">
         <v>39</v>
@@ -6187,7 +6247,7 @@
       </c>
       <c r="H27" s="28"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="29"/>
       <c r="B28" s="23" t="s">
         <v>40</v>
@@ -6201,7 +6261,7 @@
       </c>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="s">
         <v>41</v>
@@ -6215,7 +6275,7 @@
       </c>
       <c r="H29" s="28"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="29"/>
       <c r="B30" s="23" t="s">
         <v>42</v>
@@ -6229,7 +6289,7 @@
       </c>
       <c r="H30" s="28"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="29"/>
       <c r="B31" s="23" t="s">
         <v>43</v>
@@ -6243,7 +6303,7 @@
       </c>
       <c r="H31" s="28"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="29"/>
       <c r="B32" s="23" t="s">
         <v>44</v>
@@ -6257,7 +6317,7 @@
       </c>
       <c r="H32" s="28"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="32" t="s">
         <v>45</v>
       </c>
@@ -6273,7 +6333,7 @@
       </c>
       <c r="H33" s="28"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="32"/>
       <c r="B34" s="23" t="s">
         <v>47</v>
@@ -6287,7 +6347,7 @@
       </c>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="22"/>
       <c r="B35" s="23" t="s">
         <v>48</v>
@@ -6309,7 +6369,7 @@
       </c>
       <c r="H35" s="28"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="22"/>
       <c r="B36" s="23" t="s">
         <v>49</v>
@@ -6323,7 +6383,7 @@
       </c>
       <c r="H36" s="28"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="22"/>
       <c r="B37" s="23" t="s">
         <v>50</v>
@@ -6337,7 +6397,7 @@
       </c>
       <c r="H37" s="28"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="22"/>
       <c r="B38" s="23" t="s">
         <v>51</v>
@@ -6351,7 +6411,7 @@
       </c>
       <c r="H38" s="28"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="22"/>
       <c r="B39" s="23" t="s">
         <v>52</v>
@@ -6365,7 +6425,7 @@
       </c>
       <c r="H39" s="28"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="23"/>
       <c r="B40" s="23" t="s">
         <v>54</v>
@@ -6379,7 +6439,7 @@
       </c>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="23"/>
       <c r="B41" s="23" t="s">
         <v>55</v>
@@ -6393,7 +6453,7 @@
       </c>
       <c r="H41" s="28"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="23"/>
       <c r="B42" s="23" t="s">
         <v>51</v>
@@ -6407,7 +6467,7 @@
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="33"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -6421,7 +6481,7 @@
       </c>
       <c r="H43" s="28"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="32" t="s">
         <v>57</v>
       </c>
@@ -6453,19 +6513,19 @@
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -6477,7 +6537,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6503,7 +6563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -6527,7 +6587,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -6551,7 +6611,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -6573,7 +6633,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -6595,7 +6655,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -6617,7 +6677,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -6631,7 +6691,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -6645,7 +6705,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -6659,7 +6719,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -6673,7 +6733,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -6687,7 +6747,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -6701,7 +6761,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -6715,7 +6775,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -6729,7 +6789,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -6743,7 +6803,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -6757,7 +6817,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -6771,7 +6831,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -6785,7 +6845,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -6799,7 +6859,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -6813,7 +6873,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -6827,7 +6887,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -6841,7 +6901,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -6855,7 +6915,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -6869,7 +6929,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -6883,7 +6943,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -6897,7 +6957,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -6911,7 +6971,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -6925,7 +6985,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -6939,7 +6999,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -6953,7 +7013,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -6967,7 +7027,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -6991,7 +7051,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -7005,7 +7065,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7027,7 +7087,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -7049,7 +7109,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -7063,7 +7123,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -7085,7 +7145,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7105,7 +7165,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -7125,7 +7185,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -7139,7 +7199,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -7153,7 +7213,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -7167,7 +7227,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -7199,19 +7259,19 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -7223,7 +7283,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7249,7 +7309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -7273,7 +7333,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -7297,7 +7357,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -7319,7 +7379,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -7333,7 +7393,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -7347,7 +7407,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -7361,7 +7421,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -7375,7 +7435,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -7389,7 +7449,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -7403,7 +7463,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -7417,7 +7477,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -7431,7 +7491,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -7445,7 +7505,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7459,7 +7519,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -7473,7 +7533,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -7487,7 +7547,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -7501,7 +7561,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7515,7 +7575,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -7529,7 +7589,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -7543,7 +7603,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -7557,7 +7617,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7571,7 +7631,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -7585,7 +7645,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -7599,7 +7659,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -7613,7 +7673,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -7627,7 +7687,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -7641,7 +7701,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -7655,7 +7715,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -7669,7 +7729,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -7683,7 +7743,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -7697,7 +7757,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -7721,7 +7781,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -7735,7 +7795,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7757,7 +7817,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -7779,7 +7839,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -7801,7 +7861,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -7823,7 +7883,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7837,7 +7897,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -7851,7 +7911,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -7865,7 +7925,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -7887,7 +7947,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -7901,7 +7961,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -7933,27 +7993,27 @@
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
     <col min="9" max="21" width="9" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
-    <col min="23" max="23" width="17.125" customWidth="1"/>
-    <col min="24" max="24" width="18.5" customWidth="1"/>
-    <col min="25" max="25" width="26.375" customWidth="1"/>
-    <col min="26" max="26" width="21.875" customWidth="1"/>
-    <col min="27" max="27" width="38.125" customWidth="1"/>
-    <col min="28" max="28" width="71.75" customWidth="1"/>
+    <col min="23" max="23" width="17.08984375" customWidth="1"/>
+    <col min="24" max="24" width="18.453125" customWidth="1"/>
+    <col min="25" max="25" width="26.36328125" customWidth="1"/>
+    <col min="26" max="26" width="21.90625" customWidth="1"/>
+    <col min="27" max="27" width="38.08984375" customWidth="1"/>
+    <col min="28" max="28" width="71.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -7975,7 +8035,7 @@
       <c r="AA1" s="39"/>
       <c r="AB1" s="39"/>
     </row>
-    <row r="2" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8025,7 +8085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -8073,7 +8133,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -8103,7 +8163,7 @@
       </c>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="26">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -8141,7 +8201,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -8181,7 +8241,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -8215,7 +8275,7 @@
       </c>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" spans="1:28" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -8245,7 +8305,7 @@
       </c>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -8273,7 +8333,7 @@
       </c>
       <c r="AB9" s="8"/>
     </row>
-    <row r="10" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -8301,7 +8361,7 @@
       </c>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -8329,7 +8389,7 @@
       </c>
       <c r="AB11" s="8"/>
     </row>
-    <row r="12" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -8357,7 +8417,7 @@
       </c>
       <c r="AB12" s="8"/>
     </row>
-    <row r="13" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -8389,7 +8449,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -8403,7 +8463,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -8417,7 +8477,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -8431,7 +8491,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -8445,7 +8505,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -8459,7 +8519,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -8473,7 +8533,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -8487,7 +8547,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -8501,7 +8561,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -8515,7 +8575,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -8529,7 +8589,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -8543,7 +8603,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -8557,7 +8617,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -8571,7 +8631,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -8585,7 +8645,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -8599,7 +8659,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -8613,7 +8673,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -8627,7 +8687,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -8641,7 +8701,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -8655,7 +8715,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -8679,7 +8739,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -8693,7 +8753,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -8711,7 +8771,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -8725,7 +8785,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -8739,7 +8799,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -8753,7 +8813,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -8767,7 +8827,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -8781,7 +8841,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -8795,7 +8855,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -8809,7 +8869,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -8823,7 +8883,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>

--- a/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XJT17\Desktop\rj_01_test\hgkj_01\梁卫鸿\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6052DE4-B761-45C0-820E-132882E18E80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -24,12 +18,12 @@
     <sheet name="熊和亮" sheetId="9" r:id="rId9"/>
     <sheet name="华柳盛" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="88">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -311,11 +305,15 @@
     <t>已完成</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
     <numFmt numFmtId="177" formatCode="[$-804]h:mm"/>
@@ -340,21 +338,18 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -367,21 +362,18 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="30"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -389,14 +381,12 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="49"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -409,19 +399,16 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -455,29 +442,29 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,23 +472,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,18 +634,10 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -919,26 +898,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="30.36328125" customWidth="1"/>
-    <col min="8" max="8" width="99.90625" customWidth="1"/>
+    <col min="7" max="7" width="30.375" customWidth="1"/>
+    <col min="8" max="8" width="99.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -950,7 +929,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="28">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1787,26 +1766,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1928,7 +1907,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1942,7 +1921,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1956,7 +1935,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1984,7 +1963,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2040,7 +2019,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2096,7 +2075,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2152,7 +2131,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2338,7 +2317,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -2358,7 +2337,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -2372,7 +2351,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -2386,7 +2365,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -2400,7 +2379,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -2420,7 +2399,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -2434,7 +2413,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -2448,7 +2427,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -2496,7 +2475,7 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2506,26 +2485,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2653,7 +2632,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -2675,7 +2654,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -2697,7 +2676,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -2741,7 +2720,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2827,7 +2806,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2913,7 +2892,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2999,7 +2978,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3257,7 +3236,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -3277,7 +3256,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -3291,7 +3270,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -3305,7 +3284,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -3319,7 +3298,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3333,7 +3312,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -3347,7 +3326,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -3361,7 +3340,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -3414,26 +3393,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3561,7 +3540,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -3583,7 +3562,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -3605,7 +3584,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -3649,7 +3628,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -3737,7 +3716,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -3825,7 +3804,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3905,7 +3884,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4101,7 +4080,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4121,7 +4100,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4135,7 +4114,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4149,7 +4128,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4163,7 +4142,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -4177,7 +4156,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -4191,7 +4170,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -4205,7 +4184,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -4258,26 +4237,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -4407,7 +4386,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -4429,7 +4408,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -4451,7 +4430,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -4495,7 +4474,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4559,7 +4538,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -4623,7 +4602,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -4687,7 +4666,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4889,7 +4868,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4911,7 +4890,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4933,7 +4912,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4947,7 +4926,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4961,7 +4940,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -4983,7 +4962,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -5005,7 +4984,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5019,7 +4998,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5088,26 +5067,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5245,7 +5224,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -5643,7 +5622,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="16.5">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -5654,14 +5633,14 @@
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="16.5">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5674,14 +5653,14 @@
         <v>0.875</v>
       </c>
       <c r="F36" s="6">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5695,7 +5674,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="16.5">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5718,9 +5697,11 @@
         <v>43643</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5">
+        <v>0.875</v>
+      </c>
       <c r="F39" s="6">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>19</v>
@@ -5732,16 +5713,24 @@
       <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="6"/>
+      <c r="C40" s="4">
+        <v>43644</v>
+      </c>
+      <c r="D40" s="4">
+        <v>43644</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
       <c r="G40" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5755,15 +5744,21 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="16.5">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="C42" s="4">
+        <v>43644</v>
+      </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="6"/>
+      <c r="E42" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0.6</v>
+      </c>
       <c r="G42" s="7" t="s">
         <v>19</v>
       </c>
@@ -5803,7 +5798,7 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5813,25 +5808,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -5953,7 +5948,7 @@
       </c>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="29"/>
       <c r="B7" s="23" t="s">
         <v>16</v>
@@ -5967,7 +5962,7 @@
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="29"/>
       <c r="B8" s="23" t="s">
         <v>18</v>
@@ -5981,7 +5976,7 @@
       </c>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="29"/>
       <c r="B9" s="23" t="s">
         <v>20</v>
@@ -6009,7 +6004,7 @@
       </c>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="29"/>
       <c r="B11" s="23" t="s">
         <v>23</v>
@@ -6065,7 +6060,7 @@
       </c>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="29"/>
       <c r="B15" s="23" t="s">
         <v>27</v>
@@ -6121,7 +6116,7 @@
       </c>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="29"/>
       <c r="B19" s="23" t="s">
         <v>31</v>
@@ -6177,7 +6172,7 @@
       </c>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="24"/>
       <c r="B23" s="23" t="s">
         <v>35</v>
@@ -6324,12 +6319,20 @@
       <c r="B33" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="26"/>
+      <c r="C33" s="24">
+        <v>43645</v>
+      </c>
+      <c r="D33" s="24">
+        <v>43645</v>
+      </c>
+      <c r="E33" s="25">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F33" s="26">
+        <v>1</v>
+      </c>
       <c r="G33" s="27" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="H33" s="28"/>
     </row>
@@ -6347,7 +6350,7 @@
       </c>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="22"/>
       <c r="B35" s="23" t="s">
         <v>48</v>
@@ -6369,21 +6372,29 @@
       </c>
       <c r="H35" s="28"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="22"/>
       <c r="B36" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="26"/>
+      <c r="C36" s="24">
+        <v>43646</v>
+      </c>
+      <c r="D36" s="24">
+        <v>43646</v>
+      </c>
+      <c r="E36" s="25">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F36" s="26">
+        <v>0.5</v>
+      </c>
       <c r="G36" s="27" t="s">
         <v>19</v>
       </c>
       <c r="H36" s="28"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="22"/>
       <c r="B37" s="23" t="s">
         <v>50</v>
@@ -6397,7 +6408,7 @@
       </c>
       <c r="H37" s="28"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="22"/>
       <c r="B38" s="23" t="s">
         <v>51</v>
@@ -6411,7 +6422,7 @@
       </c>
       <c r="H38" s="28"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="22"/>
       <c r="B39" s="23" t="s">
         <v>52</v>
@@ -6425,7 +6436,7 @@
       </c>
       <c r="H39" s="28"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="23"/>
       <c r="B40" s="23" t="s">
         <v>54</v>
@@ -6439,7 +6450,7 @@
       </c>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="23"/>
       <c r="B41" s="23" t="s">
         <v>55</v>
@@ -6453,7 +6464,7 @@
       </c>
       <c r="H41" s="28"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="23"/>
       <c r="B42" s="23" t="s">
         <v>51</v>
@@ -6506,26 +6517,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -6655,7 +6666,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -6677,7 +6688,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -6691,7 +6702,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -6719,7 +6730,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -6775,7 +6786,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -6831,7 +6842,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -6887,7 +6898,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7065,7 +7076,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7087,7 +7098,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -7109,7 +7120,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -7123,7 +7134,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -7145,7 +7156,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7165,7 +7176,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -7185,7 +7196,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -7199,7 +7210,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -7252,26 +7263,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -7393,7 +7404,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -7407,7 +7418,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -7421,7 +7432,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -7449,7 +7460,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -7505,7 +7516,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7561,7 +7572,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7617,7 +7628,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7795,7 +7806,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7817,7 +7828,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -7839,7 +7850,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -7861,7 +7872,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -7883,7 +7894,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7897,7 +7908,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -7911,7 +7922,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -7925,7 +7936,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -7986,34 +7997,34 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
     <col min="9" max="21" width="9" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
-    <col min="23" max="23" width="17.08984375" customWidth="1"/>
-    <col min="24" max="24" width="18.453125" customWidth="1"/>
-    <col min="25" max="25" width="26.36328125" customWidth="1"/>
-    <col min="26" max="26" width="21.90625" customWidth="1"/>
-    <col min="27" max="27" width="38.08984375" customWidth="1"/>
-    <col min="28" max="28" width="71.7265625" customWidth="1"/>
+    <col min="23" max="23" width="17.125" customWidth="1"/>
+    <col min="24" max="24" width="18.5" customWidth="1"/>
+    <col min="25" max="25" width="26.375" customWidth="1"/>
+    <col min="26" max="26" width="21.875" customWidth="1"/>
+    <col min="27" max="27" width="38.125" customWidth="1"/>
+    <col min="28" max="28" width="71.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="33">
+    <row r="1" spans="1:28" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -8163,7 +8174,7 @@
       </c>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="26">
+    <row r="5" spans="1:28" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -8241,7 +8252,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="26">
+    <row r="7" spans="1:28" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -8275,7 +8286,7 @@
       </c>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" spans="1:28" ht="26">
+    <row r="8" spans="1:28" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -8305,7 +8316,7 @@
       </c>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:28" ht="26">
+    <row r="9" spans="1:28" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -8361,7 +8372,7 @@
       </c>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" spans="1:28" ht="26">
+    <row r="11" spans="1:28" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -8463,7 +8474,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:28" ht="26">
+    <row r="15" spans="1:28" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -8519,7 +8530,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -8575,7 +8586,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -8753,7 +8764,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -8771,7 +8782,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -8785,7 +8796,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -8799,7 +8810,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -8813,7 +8824,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -8827,7 +8838,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -8841,7 +8852,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -8855,7 +8866,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>

--- a/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
     <numFmt numFmtId="177" formatCode="[$-804]h:mm"/>
@@ -638,6 +638,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -898,11 +903,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1642,12 +1647,20 @@
       <c r="B43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="8"/>
+      <c r="C43" s="4">
+        <v>43647</v>
+      </c>
+      <c r="D43" s="4">
+        <v>43647</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
       <c r="G43" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H43" s="8"/>
     </row>
@@ -1766,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -2485,7 +2498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -3393,7 +3406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -4237,7 +4250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -5067,7 +5080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -5808,10 +5821,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -6517,7 +6530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -7263,7 +7276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
@@ -7997,7 +8010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">

--- a/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XJT17\Desktop\xutao\hgkj_01\梁卫鸿\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1371A19A-B7F4-40EE-B91E-202CCCD76B12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -313,7 +319,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
     <numFmt numFmtId="177" formatCode="[$-804]h:mm"/>
@@ -338,18 +344,21 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -362,18 +371,21 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="30"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -381,12 +393,14 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="49"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -399,16 +413,19 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -634,13 +651,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -903,26 +923,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="30.375" customWidth="1"/>
-    <col min="8" max="8" width="99.875" customWidth="1"/>
+    <col min="7" max="7" width="30.36328125" customWidth="1"/>
+    <col min="8" max="8" width="99.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -934,7 +954,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="28">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1779,26 +1799,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1920,7 +1940,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1934,7 +1954,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1948,7 +1968,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1976,7 +1996,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2032,7 +2052,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2088,7 +2108,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2144,7 +2164,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2330,7 +2350,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -2350,7 +2370,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -2364,7 +2384,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -2378,7 +2398,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -2392,7 +2412,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -2412,7 +2432,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -2426,7 +2446,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -2440,7 +2460,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -2488,7 +2508,7 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2498,26 +2518,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2645,7 +2665,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -2667,7 +2687,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -2689,7 +2709,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -2733,7 +2753,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2819,7 +2839,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2905,7 +2925,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2991,7 +3011,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3249,7 +3269,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -3269,7 +3289,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -3283,7 +3303,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -3297,7 +3317,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -3311,7 +3331,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3325,7 +3345,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -3339,7 +3359,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -3353,7 +3373,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -3406,26 +3426,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3553,7 +3573,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -3575,7 +3595,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -3597,7 +3617,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -3641,7 +3661,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -3729,7 +3749,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -3817,7 +3837,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3897,7 +3917,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4093,7 +4113,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4113,7 +4133,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4127,7 +4147,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4141,7 +4161,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4155,7 +4175,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -4169,7 +4189,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -4183,7 +4203,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -4197,7 +4217,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -4250,26 +4270,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -4399,7 +4419,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -4421,7 +4441,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -4443,7 +4463,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -4487,7 +4507,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4551,7 +4571,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -4615,7 +4635,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -4679,7 +4699,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4763,10 +4783,10 @@
         <v>40</v>
       </c>
       <c r="C28" s="4">
-        <v>43645</v>
+        <v>43647</v>
       </c>
       <c r="D28" s="4">
-        <v>43645</v>
+        <v>43647</v>
       </c>
       <c r="E28" s="14">
         <v>0.875</v>
@@ -4798,10 +4818,16 @@
       <c r="B30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4">
+        <v>43647</v>
+      </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G30" s="7" t="s">
         <v>19</v>
       </c>
@@ -4881,7 +4907,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4903,16 +4929,16 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="4">
-        <v>43641</v>
+        <v>43647</v>
       </c>
       <c r="D36" s="4">
-        <v>43641</v>
+        <v>43647</v>
       </c>
       <c r="E36" s="14">
         <v>0.875</v>
@@ -4925,7 +4951,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4939,7 +4965,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4953,7 +4979,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -4975,7 +5001,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -4997,7 +5023,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5011,7 +5037,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5039,10 +5065,10 @@
         <v>56</v>
       </c>
       <c r="C43" s="4">
-        <v>43645</v>
+        <v>43647</v>
       </c>
       <c r="D43" s="4">
-        <v>43645</v>
+        <v>43647</v>
       </c>
       <c r="E43" s="14">
         <v>0.875</v>
@@ -5080,26 +5106,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5237,7 +5263,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -5635,7 +5661,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -5653,7 +5679,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5673,7 +5699,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5687,7 +5713,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5743,7 +5769,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5757,7 +5783,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5811,7 +5837,7 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5821,25 +5847,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -5961,7 +5987,7 @@
       </c>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="29"/>
       <c r="B7" s="23" t="s">
         <v>16</v>
@@ -5975,7 +6001,7 @@
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="29"/>
       <c r="B8" s="23" t="s">
         <v>18</v>
@@ -5989,7 +6015,7 @@
       </c>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="29"/>
       <c r="B9" s="23" t="s">
         <v>20</v>
@@ -6017,7 +6043,7 @@
       </c>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="29"/>
       <c r="B11" s="23" t="s">
         <v>23</v>
@@ -6073,7 +6099,7 @@
       </c>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="29"/>
       <c r="B15" s="23" t="s">
         <v>27</v>
@@ -6129,7 +6155,7 @@
       </c>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="29"/>
       <c r="B19" s="23" t="s">
         <v>31</v>
@@ -6185,7 +6211,7 @@
       </c>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="24"/>
       <c r="B23" s="23" t="s">
         <v>35</v>
@@ -6363,7 +6389,7 @@
       </c>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="22"/>
       <c r="B35" s="23" t="s">
         <v>48</v>
@@ -6385,7 +6411,7 @@
       </c>
       <c r="H35" s="28"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="22"/>
       <c r="B36" s="23" t="s">
         <v>49</v>
@@ -6407,7 +6433,7 @@
       </c>
       <c r="H36" s="28"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="22"/>
       <c r="B37" s="23" t="s">
         <v>50</v>
@@ -6421,7 +6447,7 @@
       </c>
       <c r="H37" s="28"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="22"/>
       <c r="B38" s="23" t="s">
         <v>51</v>
@@ -6435,7 +6461,7 @@
       </c>
       <c r="H38" s="28"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="22"/>
       <c r="B39" s="23" t="s">
         <v>52</v>
@@ -6449,7 +6475,7 @@
       </c>
       <c r="H39" s="28"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="23"/>
       <c r="B40" s="23" t="s">
         <v>54</v>
@@ -6463,7 +6489,7 @@
       </c>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="23"/>
       <c r="B41" s="23" t="s">
         <v>55</v>
@@ -6477,7 +6503,7 @@
       </c>
       <c r="H41" s="28"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="23"/>
       <c r="B42" s="23" t="s">
         <v>51</v>
@@ -6530,26 +6556,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -6679,7 +6705,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -6701,7 +6727,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -6715,7 +6741,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -6743,7 +6769,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -6799,7 +6825,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -6855,7 +6881,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -6911,7 +6937,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7089,7 +7115,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7111,7 +7137,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -7133,7 +7159,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -7147,7 +7173,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -7169,7 +7195,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7189,7 +7215,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -7209,7 +7235,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -7223,7 +7249,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -7276,26 +7302,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -7417,7 +7443,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -7431,7 +7457,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -7445,7 +7471,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -7473,7 +7499,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -7529,7 +7555,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7585,7 +7611,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7641,7 +7667,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7819,7 +7845,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7841,7 +7867,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -7863,7 +7889,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -7885,7 +7911,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -7907,7 +7933,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7921,7 +7947,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -7935,7 +7961,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -7949,7 +7975,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -8010,34 +8036,34 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
     <col min="9" max="21" width="9" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
-    <col min="23" max="23" width="17.125" customWidth="1"/>
-    <col min="24" max="24" width="18.5" customWidth="1"/>
-    <col min="25" max="25" width="26.375" customWidth="1"/>
-    <col min="26" max="26" width="21.875" customWidth="1"/>
-    <col min="27" max="27" width="38.125" customWidth="1"/>
-    <col min="28" max="28" width="71.75" customWidth="1"/>
+    <col min="23" max="23" width="17.08984375" customWidth="1"/>
+    <col min="24" max="24" width="18.453125" customWidth="1"/>
+    <col min="25" max="25" width="26.36328125" customWidth="1"/>
+    <col min="26" max="26" width="21.90625" customWidth="1"/>
+    <col min="27" max="27" width="38.08984375" customWidth="1"/>
+    <col min="28" max="28" width="71.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="33.75">
+    <row r="1" spans="1:28" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -8187,7 +8213,7 @@
       </c>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="16.5">
+    <row r="5" spans="1:28" ht="26">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -8265,7 +8291,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="24">
+    <row r="7" spans="1:28" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -8299,7 +8325,7 @@
       </c>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" spans="1:28" ht="24">
+    <row r="8" spans="1:28" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -8329,7 +8355,7 @@
       </c>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:28" ht="16.5">
+    <row r="9" spans="1:28" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -8385,7 +8411,7 @@
       </c>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" spans="1:28" ht="16.5">
+    <row r="11" spans="1:28" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -8487,7 +8513,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:28" ht="16.5">
+    <row r="15" spans="1:28" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -8543,7 +8569,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -8599,7 +8625,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -8777,7 +8803,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -8795,7 +8821,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -8809,7 +8835,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -8823,7 +8849,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -8837,7 +8863,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -8851,7 +8877,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -8865,7 +8891,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -8879,7 +8905,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>

--- a/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XJT17\Desktop\xutao\hgkj_01\梁卫鸿\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1371A19A-B7F4-40EE-B91E-202CCCD76B12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="89">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -315,11 +309,15 @@
     <t>已完成</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
     <numFmt numFmtId="177" formatCode="[$-804]h:mm"/>
@@ -344,21 +342,18 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -371,21 +366,18 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="30"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -393,14 +385,12 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="49"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -413,19 +403,16 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -651,18 +638,10 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -923,26 +902,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="30.36328125" customWidth="1"/>
-    <col min="8" max="8" width="99.90625" customWidth="1"/>
+    <col min="7" max="7" width="30.375" customWidth="1"/>
+    <col min="8" max="8" width="99.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -954,7 +933,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="28">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1799,26 +1778,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1940,7 +1919,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1954,7 +1933,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1968,7 +1947,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1996,7 +1975,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2052,7 +2031,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2108,7 +2087,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2164,7 +2143,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2350,7 +2329,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -2370,7 +2349,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -2384,7 +2363,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -2398,7 +2377,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -2412,7 +2391,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -2432,7 +2411,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -2446,7 +2425,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -2460,7 +2439,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -2508,7 +2487,7 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2518,26 +2497,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2665,7 +2644,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -2687,7 +2666,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -2709,7 +2688,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -2753,7 +2732,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2839,7 +2818,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2925,7 +2904,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3011,7 +2990,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3269,7 +3248,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -3289,7 +3268,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -3303,7 +3282,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -3317,7 +3296,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -3331,7 +3310,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3345,7 +3324,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -3359,7 +3338,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -3373,7 +3352,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -3426,26 +3405,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3573,7 +3552,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -3595,7 +3574,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -3617,7 +3596,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -3661,7 +3640,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -3749,7 +3728,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -3837,7 +3816,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3917,7 +3896,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4113,7 +4092,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4133,7 +4112,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4147,7 +4126,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4161,7 +4140,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4175,7 +4154,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -4189,7 +4168,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -4203,7 +4182,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -4217,7 +4196,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -4270,26 +4249,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -4419,7 +4398,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -4441,7 +4420,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -4463,7 +4442,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -4507,7 +4486,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4571,7 +4550,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -4635,7 +4614,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -4699,7 +4678,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4907,7 +4886,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4929,7 +4908,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4951,7 +4930,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4965,7 +4944,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4979,7 +4958,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -5001,7 +4980,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -5023,7 +5002,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5037,7 +5016,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5106,26 +5085,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5263,7 +5242,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -5657,11 +5636,11 @@
         <v>1</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="16.5">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -5669,17 +5648,21 @@
       <c r="C35" s="4">
         <v>43643</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
+      <c r="D35" s="4">
+        <v>43647</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.875</v>
+      </c>
       <c r="F35" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="16.5">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5687,41 +5670,59 @@
       <c r="C36" s="4">
         <v>43642</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4">
+        <v>43647</v>
+      </c>
       <c r="E36" s="5">
         <v>0.875</v>
       </c>
       <c r="F36" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
+      <c r="C37" s="4">
+        <v>43647</v>
+      </c>
+      <c r="D37" s="4">
+        <v>43647</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
       <c r="G37" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="16.5">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
+      <c r="C38" s="4">
+        <v>43647</v>
+      </c>
+      <c r="D38" s="4">
+        <v>43647</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.9</v>
+      </c>
       <c r="G38" s="7" t="s">
         <v>19</v>
       </c>
@@ -5735,15 +5736,17 @@
       <c r="C39" s="4">
         <v>43643</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="4">
+        <v>43647</v>
+      </c>
       <c r="E39" s="5">
         <v>0.875</v>
       </c>
       <c r="F39" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H39" s="8"/>
     </row>
@@ -5769,7 +5772,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5783,7 +5786,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="16.5">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5791,12 +5794,14 @@
       <c r="C42" s="4">
         <v>43644</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="4">
+        <v>43647</v>
+      </c>
       <c r="E42" s="5">
         <v>0.875</v>
       </c>
       <c r="F42" s="6">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>19</v>
@@ -5837,7 +5842,7 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5847,25 +5852,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -5987,7 +5992,7 @@
       </c>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="29"/>
       <c r="B7" s="23" t="s">
         <v>16</v>
@@ -6001,7 +6006,7 @@
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="29"/>
       <c r="B8" s="23" t="s">
         <v>18</v>
@@ -6015,7 +6020,7 @@
       </c>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="29"/>
       <c r="B9" s="23" t="s">
         <v>20</v>
@@ -6043,7 +6048,7 @@
       </c>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="29"/>
       <c r="B11" s="23" t="s">
         <v>23</v>
@@ -6099,7 +6104,7 @@
       </c>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="29"/>
       <c r="B15" s="23" t="s">
         <v>27</v>
@@ -6155,7 +6160,7 @@
       </c>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="29"/>
       <c r="B19" s="23" t="s">
         <v>31</v>
@@ -6211,7 +6216,7 @@
       </c>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="24"/>
       <c r="B23" s="23" t="s">
         <v>35</v>
@@ -6389,7 +6394,7 @@
       </c>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="22"/>
       <c r="B35" s="23" t="s">
         <v>48</v>
@@ -6404,14 +6409,14 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="F35" s="26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="H35" s="28"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="22"/>
       <c r="B36" s="23" t="s">
         <v>49</v>
@@ -6433,21 +6438,29 @@
       </c>
       <c r="H36" s="28"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="22"/>
       <c r="B37" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="26"/>
+      <c r="C37" s="24">
+        <v>43647</v>
+      </c>
+      <c r="D37" s="24">
+        <v>43647</v>
+      </c>
+      <c r="E37" s="25">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F37" s="26">
+        <v>0.5</v>
+      </c>
       <c r="G37" s="27" t="s">
         <v>19</v>
       </c>
       <c r="H37" s="28"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="22"/>
       <c r="B38" s="23" t="s">
         <v>51</v>
@@ -6461,21 +6474,29 @@
       </c>
       <c r="H38" s="28"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="22"/>
       <c r="B39" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="26"/>
+      <c r="C39" s="24">
+        <v>43647</v>
+      </c>
+      <c r="D39" s="24">
+        <v>43647</v>
+      </c>
+      <c r="E39" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="F39" s="26">
+        <v>1</v>
+      </c>
       <c r="G39" s="27" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="H39" s="28"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="23"/>
       <c r="B40" s="23" t="s">
         <v>54</v>
@@ -6489,7 +6510,7 @@
       </c>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="23"/>
       <c r="B41" s="23" t="s">
         <v>55</v>
@@ -6503,7 +6524,7 @@
       </c>
       <c r="H41" s="28"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="23"/>
       <c r="B42" s="23" t="s">
         <v>51</v>
@@ -6556,26 +6577,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -6705,7 +6726,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -6727,7 +6748,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -6741,7 +6762,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -6769,7 +6790,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -6825,7 +6846,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -6881,7 +6902,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -6937,7 +6958,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7115,7 +7136,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7137,7 +7158,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -7159,7 +7180,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -7173,7 +7194,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -7195,7 +7216,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7215,7 +7236,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -7235,7 +7256,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -7249,7 +7270,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -7302,26 +7323,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -7443,7 +7464,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -7457,7 +7478,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -7471,7 +7492,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -7499,7 +7520,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -7555,7 +7576,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7611,7 +7632,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7667,7 +7688,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7845,7 +7866,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7867,7 +7888,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -7889,7 +7910,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -7911,7 +7932,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -7933,7 +7954,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7947,7 +7968,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -7961,7 +7982,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -7975,7 +7996,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -8036,34 +8057,34 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
     <col min="9" max="21" width="9" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
-    <col min="23" max="23" width="17.08984375" customWidth="1"/>
-    <col min="24" max="24" width="18.453125" customWidth="1"/>
-    <col min="25" max="25" width="26.36328125" customWidth="1"/>
-    <col min="26" max="26" width="21.90625" customWidth="1"/>
-    <col min="27" max="27" width="38.08984375" customWidth="1"/>
-    <col min="28" max="28" width="71.7265625" customWidth="1"/>
+    <col min="23" max="23" width="17.125" customWidth="1"/>
+    <col min="24" max="24" width="18.5" customWidth="1"/>
+    <col min="25" max="25" width="26.375" customWidth="1"/>
+    <col min="26" max="26" width="21.875" customWidth="1"/>
+    <col min="27" max="27" width="38.125" customWidth="1"/>
+    <col min="28" max="28" width="71.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="33">
+    <row r="1" spans="1:28" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -8213,7 +8234,7 @@
       </c>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="26">
+    <row r="5" spans="1:28" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -8291,7 +8312,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="26">
+    <row r="7" spans="1:28" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -8325,7 +8346,7 @@
       </c>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" spans="1:28" ht="26">
+    <row r="8" spans="1:28" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -8355,7 +8376,7 @@
       </c>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:28" ht="26">
+    <row r="9" spans="1:28" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -8411,7 +8432,7 @@
       </c>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" spans="1:28" ht="26">
+    <row r="11" spans="1:28" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -8513,7 +8534,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:28" ht="26">
+    <row r="15" spans="1:28" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -8569,7 +8590,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -8625,7 +8646,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -8803,7 +8824,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -8821,7 +8842,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -8835,7 +8856,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -8849,7 +8870,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -8863,7 +8884,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -8877,7 +8898,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -8891,7 +8912,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -8905,7 +8926,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>

--- a/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="90">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -300,6 +300,10 @@
   </si>
   <si>
     <t xml:space="preserve"> 21:00</t>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
@@ -5855,8 +5859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6385,12 +6389,20 @@
       <c r="B34" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="26"/>
+      <c r="C34" s="24">
+        <v>43648</v>
+      </c>
+      <c r="D34" s="24">
+        <v>43648</v>
+      </c>
+      <c r="E34" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="F34" s="26">
+        <v>1</v>
+      </c>
       <c r="G34" s="27" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="H34" s="28"/>
     </row>
@@ -6453,7 +6465,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="F37" s="26">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G37" s="27" t="s">
         <v>19</v>
@@ -6465,10 +6477,18 @@
       <c r="B38" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="26"/>
+      <c r="C38" s="24">
+        <v>43648</v>
+      </c>
+      <c r="D38" s="24">
+        <v>43648</v>
+      </c>
+      <c r="E38" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="F38" s="26">
+        <v>0.7</v>
+      </c>
       <c r="G38" s="27" t="s">
         <v>19</v>
       </c>

--- a/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XJT17\Desktop\xutao\hgkj_01\梁卫鸿\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7917D585-B11D-4312-9C4D-953D1FEA4903}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -321,7 +327,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
     <numFmt numFmtId="177" formatCode="[$-804]h:mm"/>
@@ -346,18 +352,21 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -370,18 +379,21 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="30"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -389,12 +401,14 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="49"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -407,16 +421,19 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -642,10 +659,18 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -906,26 +931,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="30.375" customWidth="1"/>
-    <col min="8" max="8" width="99.875" customWidth="1"/>
+    <col min="7" max="7" width="30.36328125" customWidth="1"/>
+    <col min="8" max="8" width="99.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -937,7 +962,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="28">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1782,26 +1807,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1923,7 +1948,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1937,7 +1962,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1951,7 +1976,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1979,7 +2004,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2035,7 +2060,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2091,7 +2116,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2147,7 +2172,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2333,7 +2358,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -2353,7 +2378,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -2367,7 +2392,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -2381,7 +2406,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -2395,7 +2420,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -2415,7 +2440,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -2429,7 +2454,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -2443,7 +2468,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -2491,7 +2516,7 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2501,26 +2526,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2648,7 +2673,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -2670,7 +2695,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -2692,7 +2717,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -2736,7 +2761,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2822,7 +2847,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2908,7 +2933,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2994,7 +3019,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3252,7 +3277,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -3272,7 +3297,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -3286,7 +3311,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -3300,7 +3325,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -3314,7 +3339,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3328,7 +3353,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -3342,7 +3367,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -3356,7 +3381,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -3409,26 +3434,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3556,7 +3581,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -3578,7 +3603,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -3600,7 +3625,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -3644,7 +3669,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -3732,7 +3757,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -3820,7 +3845,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3900,7 +3925,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4096,7 +4121,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4116,7 +4141,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4130,7 +4155,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4144,7 +4169,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4158,7 +4183,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -4172,7 +4197,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -4186,7 +4211,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -4200,7 +4225,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -4253,26 +4278,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -4402,7 +4427,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -4424,7 +4449,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -4446,7 +4471,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -4490,7 +4515,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4554,7 +4579,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -4618,7 +4643,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -4682,7 +4707,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4890,7 +4915,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4905,14 +4930,14 @@
         <v>0.875</v>
       </c>
       <c r="F35" s="6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4927,28 +4952,36 @@
         <v>0.875</v>
       </c>
       <c r="F36" s="6">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="6"/>
+      <c r="C37" s="4">
+        <v>43648</v>
+      </c>
+      <c r="D37" s="4">
+        <v>43648</v>
+      </c>
+      <c r="E37" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
       <c r="G37" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4962,7 +4995,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -4984,7 +5017,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -5006,21 +5039,29 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="6"/>
+      <c r="C41" s="4">
+        <v>43648</v>
+      </c>
+      <c r="D41" s="4">
+        <v>43648</v>
+      </c>
+      <c r="E41" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
       <c r="G41" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5089,26 +5130,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5246,7 +5287,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -5644,7 +5685,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -5666,7 +5707,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5688,7 +5729,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5710,7 +5751,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5776,7 +5817,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5790,7 +5831,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5846,7 +5887,7 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5856,25 +5897,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -5996,7 +6037,7 @@
       </c>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="29"/>
       <c r="B7" s="23" t="s">
         <v>16</v>
@@ -6010,7 +6051,7 @@
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="29"/>
       <c r="B8" s="23" t="s">
         <v>18</v>
@@ -6024,7 +6065,7 @@
       </c>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="29"/>
       <c r="B9" s="23" t="s">
         <v>20</v>
@@ -6052,7 +6093,7 @@
       </c>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="29"/>
       <c r="B11" s="23" t="s">
         <v>23</v>
@@ -6108,7 +6149,7 @@
       </c>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="29"/>
       <c r="B15" s="23" t="s">
         <v>27</v>
@@ -6164,7 +6205,7 @@
       </c>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="29"/>
       <c r="B19" s="23" t="s">
         <v>31</v>
@@ -6220,7 +6261,7 @@
       </c>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="24"/>
       <c r="B23" s="23" t="s">
         <v>35</v>
@@ -6406,7 +6447,7 @@
       </c>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="22"/>
       <c r="B35" s="23" t="s">
         <v>48</v>
@@ -6428,7 +6469,7 @@
       </c>
       <c r="H35" s="28"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="22"/>
       <c r="B36" s="23" t="s">
         <v>49</v>
@@ -6450,7 +6491,7 @@
       </c>
       <c r="H36" s="28"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="22"/>
       <c r="B37" s="23" t="s">
         <v>50</v>
@@ -6472,7 +6513,7 @@
       </c>
       <c r="H37" s="28"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="22"/>
       <c r="B38" s="23" t="s">
         <v>51</v>
@@ -6494,7 +6535,7 @@
       </c>
       <c r="H38" s="28"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="22"/>
       <c r="B39" s="23" t="s">
         <v>52</v>
@@ -6516,7 +6557,7 @@
       </c>
       <c r="H39" s="28"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="23"/>
       <c r="B40" s="23" t="s">
         <v>54</v>
@@ -6530,7 +6571,7 @@
       </c>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="23"/>
       <c r="B41" s="23" t="s">
         <v>55</v>
@@ -6544,7 +6585,7 @@
       </c>
       <c r="H41" s="28"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="23"/>
       <c r="B42" s="23" t="s">
         <v>51</v>
@@ -6597,26 +6638,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -6746,7 +6787,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -6768,7 +6809,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -6782,7 +6823,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -6810,7 +6851,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -6866,7 +6907,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -6922,7 +6963,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -6978,7 +7019,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7156,7 +7197,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7178,7 +7219,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -7200,7 +7241,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -7214,7 +7255,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -7236,7 +7277,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7256,7 +7297,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -7276,7 +7317,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -7290,7 +7331,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -7343,26 +7384,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -7484,7 +7525,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -7498,7 +7539,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -7512,7 +7553,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -7540,7 +7581,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -7596,7 +7637,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7652,7 +7693,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7708,7 +7749,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7886,7 +7927,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7908,7 +7949,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -7930,7 +7971,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -7952,7 +7993,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -7974,7 +8015,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7988,7 +8029,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -8002,7 +8043,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -8016,7 +8057,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -8077,34 +8118,34 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
     <col min="9" max="21" width="9" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
-    <col min="23" max="23" width="17.125" customWidth="1"/>
-    <col min="24" max="24" width="18.5" customWidth="1"/>
-    <col min="25" max="25" width="26.375" customWidth="1"/>
-    <col min="26" max="26" width="21.875" customWidth="1"/>
-    <col min="27" max="27" width="38.125" customWidth="1"/>
-    <col min="28" max="28" width="71.75" customWidth="1"/>
+    <col min="23" max="23" width="17.08984375" customWidth="1"/>
+    <col min="24" max="24" width="18.453125" customWidth="1"/>
+    <col min="25" max="25" width="26.36328125" customWidth="1"/>
+    <col min="26" max="26" width="21.90625" customWidth="1"/>
+    <col min="27" max="27" width="38.08984375" customWidth="1"/>
+    <col min="28" max="28" width="71.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="33.75">
+    <row r="1" spans="1:28" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -8254,7 +8295,7 @@
       </c>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="16.5">
+    <row r="5" spans="1:28" ht="26">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -8332,7 +8373,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="24">
+    <row r="7" spans="1:28" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -8366,7 +8407,7 @@
       </c>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" spans="1:28" ht="24">
+    <row r="8" spans="1:28" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -8396,7 +8437,7 @@
       </c>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:28" ht="16.5">
+    <row r="9" spans="1:28" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -8452,7 +8493,7 @@
       </c>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" spans="1:28" ht="16.5">
+    <row r="11" spans="1:28" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -8554,7 +8595,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:28" ht="16.5">
+    <row r="15" spans="1:28" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -8610,7 +8651,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -8666,7 +8707,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -8844,7 +8885,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -8862,7 +8903,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -8876,7 +8917,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -8890,7 +8931,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -8904,7 +8945,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -8918,7 +8959,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -8932,7 +8973,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -8946,7 +8987,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>

--- a/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XJT17\Desktop\xutao\hgkj_01\梁卫鸿\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ojjplus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7917D585-B11D-4312-9C4D-953D1FEA4903}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5664690-82D3-4F4B-B94E-AEFBDDBC74FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -938,19 +938,19 @@
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="30.36328125" customWidth="1"/>
-    <col min="8" max="8" width="99.90625" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="99.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -962,7 +962,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="28">
+    <row r="2" spans="1:8" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -988,7 +988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
+    <row r="7" spans="1:8" ht="15.6">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1104,7 +1104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8" ht="15.6">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5">
+    <row r="10" spans="1:8" ht="15.6">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="15.6">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="15.6">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="15.6">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="16.5">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -1612,7 +1612,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="8"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="16.5">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="35"/>
@@ -1716,7 +1716,7 @@
       <c r="G45" s="37"/>
       <c r="H45" s="38"/>
     </row>
-    <row r="46" spans="1:8" ht="16.5">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="35"/>
@@ -1726,7 +1726,7 @@
       <c r="G46" s="37"/>
       <c r="H46" s="38"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="35"/>
@@ -1736,7 +1736,7 @@
       <c r="G47" s="37"/>
       <c r="H47" s="38"/>
     </row>
-    <row r="48" spans="1:8" ht="16.5">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="35"/>
@@ -1746,7 +1746,7 @@
       <c r="G48" s="37"/>
       <c r="H48" s="38"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="35"/>
@@ -1756,7 +1756,7 @@
       <c r="G49" s="37"/>
       <c r="H49" s="38"/>
     </row>
-    <row r="50" spans="1:8" ht="16.5">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="35"/>
@@ -1766,7 +1766,7 @@
       <c r="G50" s="37"/>
       <c r="H50" s="38"/>
     </row>
-    <row r="51" spans="1:8" ht="16.5">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="35"/>
@@ -1776,7 +1776,7 @@
       <c r="G51" s="37"/>
       <c r="H51" s="38"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="35"/>
@@ -1786,7 +1786,7 @@
       <c r="G52" s="37"/>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" spans="1:8" ht="16.5">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="35"/>
@@ -1814,19 +1814,19 @@
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -2533,19 +2533,19 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -3441,19 +3441,19 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -4003,7 +4003,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -4039,7 +4039,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -4281,23 +4281,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5083,7 +5083,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -5137,19 +5137,19 @@
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -5273,7 +5273,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
+    <row r="7" spans="1:8" ht="15.6">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -5287,7 +5287,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="15.6">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="15.6">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="15.6">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -5483,7 +5483,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -5567,7 +5567,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -5609,7 +5609,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5773,7 +5773,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -5904,18 +5904,18 @@
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="22"/>
       <c r="B5" s="23" t="s">
         <v>14</v>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="22"/>
       <c r="B6" s="23" t="s">
         <v>15</v>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="29"/>
       <c r="B7" s="23" t="s">
         <v>16</v>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="29"/>
       <c r="B8" s="23" t="s">
         <v>18</v>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="29"/>
       <c r="B9" s="23" t="s">
         <v>20</v>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="29"/>
       <c r="B11" s="23" t="s">
         <v>23</v>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="29"/>
       <c r="B12" s="23" t="s">
         <v>24</v>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="29"/>
       <c r="B13" s="23" t="s">
         <v>25</v>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="H13" s="28"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="29"/>
       <c r="B14" s="23" t="s">
         <v>26</v>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="29"/>
       <c r="B15" s="23" t="s">
         <v>27</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="29"/>
       <c r="B16" s="23" t="s">
         <v>28</v>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="H16" s="28"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="29"/>
       <c r="B17" s="23" t="s">
         <v>29</v>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="H17" s="28"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="29"/>
       <c r="B18" s="23" t="s">
         <v>30</v>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="29"/>
       <c r="B19" s="23" t="s">
         <v>31</v>
@@ -6219,7 +6219,7 @@
       </c>
       <c r="H19" s="28"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="29"/>
       <c r="B20" s="23" t="s">
         <v>32</v>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="29"/>
       <c r="B21" s="23" t="s">
         <v>33</v>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="H21" s="28"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="29"/>
       <c r="B22" s="23" t="s">
         <v>34</v>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="24"/>
       <c r="B23" s="23" t="s">
         <v>35</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="29"/>
       <c r="B24" s="23" t="s">
         <v>36</v>
@@ -6289,7 +6289,7 @@
       </c>
       <c r="H24" s="28"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="29"/>
       <c r="B25" s="23" t="s">
         <v>37</v>
@@ -6303,7 +6303,7 @@
       </c>
       <c r="H25" s="28"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="29"/>
       <c r="B26" s="23" t="s">
         <v>38</v>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="H26" s="28"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="29"/>
       <c r="B27" s="23" t="s">
         <v>39</v>
@@ -6331,7 +6331,7 @@
       </c>
       <c r="H27" s="28"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="29"/>
       <c r="B28" s="23" t="s">
         <v>40</v>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="s">
         <v>41</v>
@@ -6359,7 +6359,7 @@
       </c>
       <c r="H29" s="28"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="29"/>
       <c r="B30" s="23" t="s">
         <v>42</v>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="H30" s="28"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="29"/>
       <c r="B31" s="23" t="s">
         <v>43</v>
@@ -6387,7 +6387,7 @@
       </c>
       <c r="H31" s="28"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="29"/>
       <c r="B32" s="23" t="s">
         <v>44</v>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="H32" s="28"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="32" t="s">
         <v>45</v>
       </c>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="H33" s="28"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="32"/>
       <c r="B34" s="23" t="s">
         <v>47</v>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="22"/>
       <c r="B35" s="23" t="s">
         <v>48</v>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="H35" s="28"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="22"/>
       <c r="B36" s="23" t="s">
         <v>49</v>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="H36" s="28"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="22"/>
       <c r="B37" s="23" t="s">
         <v>50</v>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="H37" s="28"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="22"/>
       <c r="B38" s="23" t="s">
         <v>51</v>
@@ -6535,7 +6535,7 @@
       </c>
       <c r="H38" s="28"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="22"/>
       <c r="B39" s="23" t="s">
         <v>52</v>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="H39" s="28"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="23"/>
       <c r="B40" s="23" t="s">
         <v>54</v>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="23"/>
       <c r="B41" s="23" t="s">
         <v>55</v>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="H41" s="28"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="23"/>
       <c r="B42" s="23" t="s">
         <v>51</v>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="33"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="H43" s="28"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="32" t="s">
         <v>57</v>
       </c>
@@ -6641,23 +6641,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -6823,7 +6823,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -6907,7 +6907,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -7019,7 +7019,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -7103,7 +7103,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -7131,7 +7131,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -7145,7 +7145,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7285,19 +7285,21 @@
       <c r="C39" s="4">
         <v>43646</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="4">
+        <v>43647</v>
+      </c>
       <c r="E39" s="14">
         <v>0.875</v>
       </c>
       <c r="F39" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -7305,19 +7307,21 @@
       <c r="C40" s="4">
         <v>43646</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="4">
+        <v>43647</v>
+      </c>
       <c r="E40" s="14">
         <v>0.875</v>
       </c>
       <c r="F40" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -7331,35 +7335,51 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="6"/>
+      <c r="C42" s="4">
+        <v>43647</v>
+      </c>
+      <c r="D42" s="4">
+        <v>43648</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1</v>
+      </c>
       <c r="G42" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="6"/>
+      <c r="C43" s="4">
+        <v>43648</v>
+      </c>
+      <c r="D43" s="4">
+        <v>43649</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0.6</v>
+      </c>
       <c r="G43" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -7391,19 +7411,19 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -7441,7 +7461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -7465,7 +7485,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -7489,7 +7509,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -7511,7 +7531,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -7525,7 +7545,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -7539,7 +7559,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -7553,7 +7573,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -7581,7 +7601,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -7595,7 +7615,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -7609,7 +7629,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -7623,7 +7643,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -7637,7 +7657,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7651,7 +7671,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -7665,7 +7685,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -7679,7 +7699,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -7693,7 +7713,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7707,7 +7727,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -7721,7 +7741,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -7735,7 +7755,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -7749,7 +7769,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7763,7 +7783,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -7777,7 +7797,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -7791,7 +7811,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -7805,7 +7825,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -7819,7 +7839,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -7833,7 +7853,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -7847,7 +7867,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -7861,7 +7881,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -7875,7 +7895,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -7889,7 +7909,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -7913,7 +7933,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -7927,7 +7947,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7949,7 +7969,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -7971,7 +7991,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -7993,7 +8013,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -8015,7 +8035,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -8029,7 +8049,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -8043,7 +8063,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -8057,7 +8077,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -8079,7 +8099,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -8093,7 +8113,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -8125,27 +8145,27 @@
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
     <col min="9" max="21" width="9" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
-    <col min="23" max="23" width="17.08984375" customWidth="1"/>
-    <col min="24" max="24" width="18.453125" customWidth="1"/>
-    <col min="25" max="25" width="26.36328125" customWidth="1"/>
-    <col min="26" max="26" width="21.90625" customWidth="1"/>
-    <col min="27" max="27" width="38.08984375" customWidth="1"/>
-    <col min="28" max="28" width="71.7265625" customWidth="1"/>
+    <col min="23" max="23" width="17.109375" customWidth="1"/>
+    <col min="24" max="24" width="18.44140625" customWidth="1"/>
+    <col min="25" max="25" width="26.33203125" customWidth="1"/>
+    <col min="26" max="26" width="21.88671875" customWidth="1"/>
+    <col min="27" max="27" width="38.109375" customWidth="1"/>
+    <col min="28" max="28" width="71.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="33">
+    <row r="1" spans="1:28" ht="32.4">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -8217,7 +8237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="16.5">
+    <row r="3" spans="1:28" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -8265,7 +8285,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="16.5">
+    <row r="4" spans="1:28" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -8295,7 +8315,7 @@
       </c>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="26">
+    <row r="5" spans="1:28" ht="24">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -8333,7 +8353,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="16.5">
+    <row r="6" spans="1:28" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -8373,7 +8393,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="26">
+    <row r="7" spans="1:28" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -8407,7 +8427,7 @@
       </c>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" spans="1:28" ht="26">
+    <row r="8" spans="1:28" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -8437,7 +8457,7 @@
       </c>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:28" ht="26">
+    <row r="9" spans="1:28" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -8493,7 +8513,7 @@
       </c>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" spans="1:28" ht="26">
+    <row r="11" spans="1:28" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -8521,7 +8541,7 @@
       </c>
       <c r="AB11" s="8"/>
     </row>
-    <row r="12" spans="1:28" ht="16.5">
+    <row r="12" spans="1:28" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -8549,7 +8569,7 @@
       </c>
       <c r="AB12" s="8"/>
     </row>
-    <row r="13" spans="1:28" ht="16.5">
+    <row r="13" spans="1:28" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -8581,7 +8601,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="16.5">
+    <row r="14" spans="1:28" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -8595,7 +8615,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:28" ht="26">
+    <row r="15" spans="1:28" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -8609,7 +8629,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="16.5">
+    <row r="16" spans="1:28" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -8623,7 +8643,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -8637,7 +8657,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -8651,7 +8671,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -8665,7 +8685,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -8679,7 +8699,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -8693,7 +8713,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -8707,7 +8727,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -8721,7 +8741,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -8735,7 +8755,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -8749,7 +8769,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -8763,7 +8783,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -8777,7 +8797,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -8791,7 +8811,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -8805,7 +8825,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -8819,7 +8839,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -8833,7 +8853,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -8847,7 +8867,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -8871,7 +8891,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -8885,7 +8905,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -8903,7 +8923,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -8917,7 +8937,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -8931,7 +8951,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -8945,7 +8965,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -8959,7 +8979,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -8973,7 +8993,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -8987,7 +9007,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -9001,7 +9021,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -9015,7 +9035,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>

--- a/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ojjplus\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5664690-82D3-4F4B-B94E-AEFBDDBC74FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -327,7 +321,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
     <numFmt numFmtId="177" formatCode="[$-804]h:mm"/>
@@ -659,7 +653,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -931,26 +925,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1"/>
-    <col min="8" max="8" width="99.88671875" customWidth="1"/>
+    <col min="7" max="7" width="30.375" customWidth="1"/>
+    <col min="8" max="8" width="99.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -962,7 +956,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="28.8">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -988,7 +982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1012,7 +1006,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1036,7 +1030,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1058,7 +1052,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -1080,7 +1074,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="15.6">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1104,7 +1098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.6">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1112,19 +1106,21 @@
       <c r="C8" s="4">
         <v>43639</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <v>43649</v>
+      </c>
       <c r="E8" s="14">
         <v>0.875</v>
       </c>
       <c r="F8" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="15.6">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1138,7 +1134,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6">
+    <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -1154,7 +1150,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="15.6">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -1168,7 +1164,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -1182,7 +1178,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -1196,7 +1192,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -1210,7 +1206,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="15.6">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -1224,7 +1220,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -1238,7 +1234,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -1252,7 +1248,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -1266,7 +1262,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="15.6">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -1280,7 +1276,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -1294,7 +1290,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -1308,7 +1304,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -1322,7 +1318,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -1336,7 +1332,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -1350,7 +1346,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -1364,7 +1360,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -1378,7 +1374,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -1392,49 +1388,73 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="6"/>
+      <c r="C28" s="4">
+        <v>43649</v>
+      </c>
+      <c r="D28" s="4">
+        <v>43649</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
       <c r="G28" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="6"/>
+      <c r="C29" s="4">
+        <v>43649</v>
+      </c>
+      <c r="D29" s="4">
+        <v>43649</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
       <c r="G29" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="6"/>
+      <c r="C30" s="4">
+        <v>43649</v>
+      </c>
+      <c r="D30" s="4">
+        <v>43649</v>
+      </c>
+      <c r="E30" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
       <c r="G30" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -1448,7 +1468,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -1462,7 +1482,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -1486,7 +1506,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -1508,7 +1528,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="16.5">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -1530,7 +1550,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="16.5">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -1552,7 +1572,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="16.5">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -1566,7 +1586,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="16.5">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -1588,7 +1608,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -1612,7 +1632,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -1634,7 +1654,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -1648,7 +1668,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="16.5">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -1670,7 +1690,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="8"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -1692,7 +1712,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -1706,7 +1726,7 @@
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="16.5">
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="35"/>
@@ -1716,7 +1736,7 @@
       <c r="G45" s="37"/>
       <c r="H45" s="38"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="16.5">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="35"/>
@@ -1726,7 +1746,7 @@
       <c r="G46" s="37"/>
       <c r="H46" s="38"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="16.5">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="35"/>
@@ -1736,7 +1756,7 @@
       <c r="G47" s="37"/>
       <c r="H47" s="38"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="16.5">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="35"/>
@@ -1746,7 +1766,7 @@
       <c r="G48" s="37"/>
       <c r="H48" s="38"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="16.5">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="35"/>
@@ -1756,7 +1776,7 @@
       <c r="G49" s="37"/>
       <c r="H49" s="38"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="16.5">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="35"/>
@@ -1766,7 +1786,7 @@
       <c r="G50" s="37"/>
       <c r="H50" s="38"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="16.5">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="35"/>
@@ -1776,7 +1796,7 @@
       <c r="G51" s="37"/>
       <c r="H51" s="38"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="16.5">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="35"/>
@@ -1786,7 +1806,7 @@
       <c r="G52" s="37"/>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="16.5">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="35"/>
@@ -1807,26 +1827,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1864,7 +1884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1888,7 +1908,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1904,7 +1924,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1926,7 +1946,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -1976,7 +1996,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -2004,7 +2024,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="24">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2018,7 +2038,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -2032,7 +2052,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -2046,7 +2066,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -2060,7 +2080,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2074,7 +2094,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -2088,7 +2108,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -2102,7 +2122,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -2116,7 +2136,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2130,7 +2150,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -2144,7 +2164,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -2158,7 +2178,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -2172,7 +2192,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2186,7 +2206,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -2200,7 +2220,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -2214,7 +2234,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -2228,7 +2248,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -2242,7 +2262,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -2256,7 +2276,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -2270,7 +2290,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -2284,7 +2304,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -2298,7 +2318,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -2312,7 +2332,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -2336,7 +2356,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -2420,7 +2440,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -2440,7 +2460,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -2482,7 +2502,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -2496,7 +2516,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -2516,7 +2536,7 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2526,26 +2546,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2583,7 +2603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2607,7 +2627,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2631,7 +2651,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -2651,7 +2671,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -2717,7 +2737,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -2761,7 +2781,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="24">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2783,7 +2803,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -2805,7 +2825,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -2825,7 +2845,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -2847,7 +2867,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2869,7 +2889,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -2891,7 +2911,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -2911,7 +2931,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -2933,7 +2953,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2955,7 +2975,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -2977,7 +2997,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -2997,7 +3017,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -3019,7 +3039,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3041,7 +3061,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -3063,7 +3083,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -3083,7 +3103,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -3105,7 +3125,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -3127,7 +3147,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -3147,7 +3167,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -3167,7 +3187,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -3189,7 +3209,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -3209,7 +3229,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -3231,7 +3251,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -3255,7 +3275,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -3339,7 +3359,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3353,7 +3373,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -3395,7 +3415,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -3409,7 +3429,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -3434,26 +3454,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3491,7 +3511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3515,7 +3535,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3539,7 +3559,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -3559,7 +3579,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -3625,7 +3645,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -3669,7 +3689,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="24">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -3691,7 +3711,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -3713,7 +3733,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -3735,7 +3755,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -3757,7 +3777,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -3779,7 +3799,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -3801,7 +3821,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -3823,7 +3843,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -3845,7 +3865,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3867,7 +3887,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -3881,7 +3901,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -3903,7 +3923,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -3925,7 +3945,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3947,7 +3967,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -3961,7 +3981,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -3975,7 +3995,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -3989,7 +4009,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -4003,7 +4023,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -4017,7 +4037,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -4039,7 +4059,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -4053,7 +4073,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -4067,7 +4087,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -4083,7 +4103,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -4107,7 +4127,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -4183,7 +4203,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -4197,7 +4217,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -4239,7 +4259,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -4253,7 +4273,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -4278,26 +4298,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -4335,7 +4355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -4359,7 +4379,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4383,7 +4403,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -4405,7 +4425,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -4471,7 +4491,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -4515,7 +4535,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="24">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4537,7 +4557,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -4551,7 +4571,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -4565,7 +4585,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -4579,7 +4599,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -4601,7 +4621,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -4615,7 +4635,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -4629,7 +4649,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -4643,7 +4663,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -4665,7 +4685,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -4679,7 +4699,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -4693,7 +4713,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -4707,7 +4727,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4729,7 +4749,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -4743,7 +4763,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -4757,7 +4777,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -4771,7 +4791,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -4785,7 +4805,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -4807,7 +4827,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -4821,7 +4841,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -4841,7 +4861,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -4855,7 +4875,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -4869,7 +4889,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -4893,7 +4913,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -4995,7 +5015,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -5017,7 +5037,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -5083,7 +5103,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -5105,7 +5125,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -5130,26 +5150,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5187,7 +5207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -5213,7 +5233,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -5229,7 +5249,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -5251,7 +5271,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -5273,7 +5293,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="15.6">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -5287,7 +5307,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -5301,7 +5321,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="15.6">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -5329,7 +5349,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="15.6">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -5343,7 +5363,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -5357,7 +5377,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -5371,7 +5391,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -5385,7 +5405,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="15.6">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -5399,7 +5419,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -5413,7 +5433,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -5427,7 +5447,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -5441,7 +5461,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="15.6">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -5455,7 +5475,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -5469,7 +5489,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -5483,7 +5503,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -5497,7 +5517,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -5511,7 +5531,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -5525,7 +5545,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -5539,7 +5559,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -5553,7 +5573,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -5567,7 +5587,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -5581,7 +5601,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -5595,7 +5615,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -5609,7 +5629,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -5623,7 +5643,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -5637,7 +5657,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -5663,7 +5683,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -5685,7 +5705,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="16.5">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -5707,7 +5727,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="16.5">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5751,7 +5771,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="16.5">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5773,7 +5793,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -5795,7 +5815,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -5817,7 +5837,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5831,7 +5851,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="16.5">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5853,7 +5873,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -5867,7 +5887,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -5887,7 +5907,7 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5897,25 +5917,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -5953,7 +5973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
@@ -5977,7 +5997,7 @@
       </c>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
@@ -6001,7 +6021,7 @@
       </c>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="22"/>
       <c r="B5" s="23" t="s">
         <v>14</v>
@@ -6023,7 +6043,7 @@
       </c>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="22"/>
       <c r="B6" s="23" t="s">
         <v>15</v>
@@ -6065,7 +6085,7 @@
       </c>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="29"/>
       <c r="B9" s="23" t="s">
         <v>20</v>
@@ -6093,7 +6113,7 @@
       </c>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" ht="24">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="29"/>
       <c r="B11" s="23" t="s">
         <v>23</v>
@@ -6107,7 +6127,7 @@
       </c>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="29"/>
       <c r="B12" s="23" t="s">
         <v>24</v>
@@ -6121,7 +6141,7 @@
       </c>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="29"/>
       <c r="B13" s="23" t="s">
         <v>25</v>
@@ -6135,7 +6155,7 @@
       </c>
       <c r="H13" s="28"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="29"/>
       <c r="B14" s="23" t="s">
         <v>26</v>
@@ -6149,7 +6169,7 @@
       </c>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="29"/>
       <c r="B15" s="23" t="s">
         <v>27</v>
@@ -6163,7 +6183,7 @@
       </c>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="29"/>
       <c r="B16" s="23" t="s">
         <v>28</v>
@@ -6177,7 +6197,7 @@
       </c>
       <c r="H16" s="28"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="29"/>
       <c r="B17" s="23" t="s">
         <v>29</v>
@@ -6191,7 +6211,7 @@
       </c>
       <c r="H17" s="28"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="29"/>
       <c r="B18" s="23" t="s">
         <v>30</v>
@@ -6205,7 +6225,7 @@
       </c>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="29"/>
       <c r="B19" s="23" t="s">
         <v>31</v>
@@ -6219,7 +6239,7 @@
       </c>
       <c r="H19" s="28"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="29"/>
       <c r="B20" s="23" t="s">
         <v>32</v>
@@ -6233,7 +6253,7 @@
       </c>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="29"/>
       <c r="B21" s="23" t="s">
         <v>33</v>
@@ -6247,7 +6267,7 @@
       </c>
       <c r="H21" s="28"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="29"/>
       <c r="B22" s="23" t="s">
         <v>34</v>
@@ -6261,7 +6281,7 @@
       </c>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="24"/>
       <c r="B23" s="23" t="s">
         <v>35</v>
@@ -6275,7 +6295,7 @@
       </c>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="29"/>
       <c r="B24" s="23" t="s">
         <v>36</v>
@@ -6289,7 +6309,7 @@
       </c>
       <c r="H24" s="28"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="29"/>
       <c r="B25" s="23" t="s">
         <v>37</v>
@@ -6303,7 +6323,7 @@
       </c>
       <c r="H25" s="28"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="29"/>
       <c r="B26" s="23" t="s">
         <v>38</v>
@@ -6317,7 +6337,7 @@
       </c>
       <c r="H26" s="28"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="29"/>
       <c r="B27" s="23" t="s">
         <v>39</v>
@@ -6331,7 +6351,7 @@
       </c>
       <c r="H27" s="28"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="29"/>
       <c r="B28" s="23" t="s">
         <v>40</v>
@@ -6345,7 +6365,7 @@
       </c>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="s">
         <v>41</v>
@@ -6359,7 +6379,7 @@
       </c>
       <c r="H29" s="28"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="29"/>
       <c r="B30" s="23" t="s">
         <v>42</v>
@@ -6373,7 +6393,7 @@
       </c>
       <c r="H30" s="28"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="29"/>
       <c r="B31" s="23" t="s">
         <v>43</v>
@@ -6387,7 +6407,7 @@
       </c>
       <c r="H31" s="28"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="29"/>
       <c r="B32" s="23" t="s">
         <v>44</v>
@@ -6401,7 +6421,7 @@
       </c>
       <c r="H32" s="28"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="32" t="s">
         <v>45</v>
       </c>
@@ -6425,7 +6445,7 @@
       </c>
       <c r="H33" s="28"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="32"/>
       <c r="B34" s="23" t="s">
         <v>47</v>
@@ -6535,7 +6555,7 @@
       </c>
       <c r="H38" s="28"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="22"/>
       <c r="B39" s="23" t="s">
         <v>52</v>
@@ -6557,7 +6577,7 @@
       </c>
       <c r="H39" s="28"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="23"/>
       <c r="B40" s="23" t="s">
         <v>54</v>
@@ -6599,7 +6619,7 @@
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="33"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -6613,7 +6633,7 @@
       </c>
       <c r="H43" s="28"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="32" t="s">
         <v>57</v>
       </c>
@@ -6638,26 +6658,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -6695,7 +6715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -6719,7 +6739,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -6743,7 +6763,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -6765,7 +6785,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -6823,7 +6843,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -6851,7 +6871,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="24">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -6865,7 +6885,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -6879,7 +6899,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -6893,7 +6913,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -6907,7 +6927,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -6921,7 +6941,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -6935,7 +6955,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -6949,7 +6969,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -6963,7 +6983,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -6977,7 +6997,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -6991,7 +7011,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -7005,7 +7025,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -7019,7 +7039,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7033,7 +7053,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -7047,7 +7067,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -7061,7 +7081,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -7075,7 +7095,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -7089,7 +7109,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -7103,7 +7123,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -7117,7 +7137,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -7131,7 +7151,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -7145,7 +7165,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -7159,7 +7179,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -7183,7 +7203,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -7277,7 +7297,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7299,7 +7319,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -7357,7 +7377,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -7379,7 +7399,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -7404,26 +7424,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -7461,7 +7481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -7485,7 +7505,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -7509,7 +7529,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -7531,7 +7551,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -7573,7 +7593,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -7601,7 +7621,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="24">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -7615,7 +7635,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -7629,7 +7649,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -7643,7 +7663,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -7657,7 +7677,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7671,7 +7691,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -7685,7 +7705,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -7699,7 +7719,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -7713,7 +7733,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7727,7 +7747,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -7741,7 +7761,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -7755,7 +7775,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -7769,7 +7789,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7783,7 +7803,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -7797,7 +7817,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -7811,7 +7831,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -7825,7 +7845,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -7839,7 +7859,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -7853,7 +7873,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -7867,7 +7887,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -7881,7 +7901,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -7895,7 +7915,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -7909,7 +7929,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -7933,7 +7953,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -8035,7 +8055,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -8049,7 +8069,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -8099,7 +8119,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -8113,7 +8133,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -8138,34 +8158,34 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
     <col min="9" max="21" width="9" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
-    <col min="23" max="23" width="17.109375" customWidth="1"/>
-    <col min="24" max="24" width="18.44140625" customWidth="1"/>
-    <col min="25" max="25" width="26.33203125" customWidth="1"/>
-    <col min="26" max="26" width="21.88671875" customWidth="1"/>
-    <col min="27" max="27" width="38.109375" customWidth="1"/>
-    <col min="28" max="28" width="71.77734375" customWidth="1"/>
+    <col min="23" max="23" width="17.125" customWidth="1"/>
+    <col min="24" max="24" width="18.5" customWidth="1"/>
+    <col min="25" max="25" width="26.375" customWidth="1"/>
+    <col min="26" max="26" width="21.875" customWidth="1"/>
+    <col min="27" max="27" width="38.125" customWidth="1"/>
+    <col min="28" max="28" width="71.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="32.4">
+    <row r="1" spans="1:28" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -8237,7 +8257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.6">
+    <row r="3" spans="1:28" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -8285,7 +8305,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.6">
+    <row r="4" spans="1:28" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -8315,7 +8335,7 @@
       </c>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="24">
+    <row r="5" spans="1:28" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -8353,7 +8373,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15.6">
+    <row r="6" spans="1:28" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -8457,7 +8477,7 @@
       </c>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:28" ht="24">
+    <row r="9" spans="1:28" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -8513,7 +8533,7 @@
       </c>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" spans="1:28" ht="24">
+    <row r="11" spans="1:28" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -8541,7 +8561,7 @@
       </c>
       <c r="AB11" s="8"/>
     </row>
-    <row r="12" spans="1:28" ht="15.6">
+    <row r="12" spans="1:28" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -8569,7 +8589,7 @@
       </c>
       <c r="AB12" s="8"/>
     </row>
-    <row r="13" spans="1:28" ht="15.6">
+    <row r="13" spans="1:28" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -8601,7 +8621,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.6">
+    <row r="14" spans="1:28" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -8615,7 +8635,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:28" ht="24">
+    <row r="15" spans="1:28" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -8629,7 +8649,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="15.6">
+    <row r="16" spans="1:28" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -8643,7 +8663,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -8657,7 +8677,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -8671,7 +8691,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -8685,7 +8705,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -8699,7 +8719,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -8713,7 +8733,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -8727,7 +8747,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -8741,7 +8761,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -8755,7 +8775,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -8769,7 +8789,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -8783,7 +8803,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -8797,7 +8817,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -8811,7 +8831,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -8825,7 +8845,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -8839,7 +8859,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -8853,7 +8873,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -8867,7 +8887,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -8891,7 +8911,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -8965,7 +8985,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -8979,7 +8999,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -9021,7 +9041,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -9035,7 +9055,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>

--- a/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XJT17\Desktop\xutao\hgkj_01\梁卫鸿\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27E3F8F-F680-4473-B443-E99A165C85A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -321,7 +327,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
     <numFmt numFmtId="177" formatCode="[$-804]h:mm"/>
@@ -653,7 +659,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -925,26 +931,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="30.375" customWidth="1"/>
-    <col min="8" max="8" width="99.875" customWidth="1"/>
+    <col min="7" max="7" width="30.36328125" customWidth="1"/>
+    <col min="8" max="8" width="99.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -956,7 +962,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="28">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1827,26 +1833,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1968,7 +1974,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1982,7 +1988,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1996,7 +2002,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -2024,7 +2030,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2080,7 +2086,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2136,7 +2142,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2192,7 +2198,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2378,7 +2384,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -2398,7 +2404,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -2412,7 +2418,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -2426,7 +2432,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -2440,7 +2446,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -2460,7 +2466,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -2474,7 +2480,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -2488,7 +2494,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -2536,7 +2542,7 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2546,26 +2552,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2693,7 +2699,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -2715,7 +2721,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -2737,7 +2743,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -2781,7 +2787,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2867,7 +2873,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2953,7 +2959,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3039,7 +3045,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3297,7 +3303,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -3317,7 +3323,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -3331,7 +3337,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -3345,7 +3351,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -3359,7 +3365,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3373,7 +3379,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -3387,7 +3393,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -3401,7 +3407,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -3454,26 +3460,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3601,7 +3607,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -3623,7 +3629,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -3645,7 +3651,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -3689,7 +3695,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -3777,7 +3783,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -3865,7 +3871,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3945,7 +3951,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4141,7 +4147,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4161,7 +4167,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4175,7 +4181,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4189,7 +4195,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4203,7 +4209,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -4217,7 +4223,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -4231,7 +4237,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -4245,7 +4251,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -4298,26 +4304,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -4447,7 +4453,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -4469,7 +4475,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -4491,7 +4497,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -4535,7 +4541,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4599,7 +4605,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -4663,7 +4669,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -4727,7 +4733,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4847,7 +4853,7 @@
         <v>42</v>
       </c>
       <c r="C30" s="4">
-        <v>43647</v>
+        <v>43649</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="14">
@@ -4935,7 +4941,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4957,7 +4963,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4979,7 +4985,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5001,7 +5007,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5015,7 +5021,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -5037,7 +5043,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -5059,7 +5065,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5081,7 +5087,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5109,7 +5115,7 @@
         <v>56</v>
       </c>
       <c r="C43" s="4">
-        <v>43647</v>
+        <v>43649</v>
       </c>
       <c r="D43" s="4">
         <v>43647</v>
@@ -5150,26 +5156,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5307,7 +5313,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -5705,7 +5711,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -5727,7 +5733,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5749,7 +5755,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5771,7 +5777,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5837,7 +5843,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5851,7 +5857,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5907,7 +5913,7 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5917,25 +5923,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -6057,7 +6063,7 @@
       </c>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="29"/>
       <c r="B7" s="23" t="s">
         <v>16</v>
@@ -6071,7 +6077,7 @@
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="29"/>
       <c r="B8" s="23" t="s">
         <v>18</v>
@@ -6085,7 +6091,7 @@
       </c>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="29"/>
       <c r="B9" s="23" t="s">
         <v>20</v>
@@ -6113,7 +6119,7 @@
       </c>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="29"/>
       <c r="B11" s="23" t="s">
         <v>23</v>
@@ -6169,7 +6175,7 @@
       </c>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="29"/>
       <c r="B15" s="23" t="s">
         <v>27</v>
@@ -6225,7 +6231,7 @@
       </c>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="29"/>
       <c r="B19" s="23" t="s">
         <v>31</v>
@@ -6281,7 +6287,7 @@
       </c>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="24"/>
       <c r="B23" s="23" t="s">
         <v>35</v>
@@ -6467,7 +6473,7 @@
       </c>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="22"/>
       <c r="B35" s="23" t="s">
         <v>48</v>
@@ -6489,7 +6495,7 @@
       </c>
       <c r="H35" s="28"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="22"/>
       <c r="B36" s="23" t="s">
         <v>49</v>
@@ -6511,7 +6517,7 @@
       </c>
       <c r="H36" s="28"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="22"/>
       <c r="B37" s="23" t="s">
         <v>50</v>
@@ -6533,7 +6539,7 @@
       </c>
       <c r="H37" s="28"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="22"/>
       <c r="B38" s="23" t="s">
         <v>51</v>
@@ -6555,7 +6561,7 @@
       </c>
       <c r="H38" s="28"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="22"/>
       <c r="B39" s="23" t="s">
         <v>52</v>
@@ -6577,7 +6583,7 @@
       </c>
       <c r="H39" s="28"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="23"/>
       <c r="B40" s="23" t="s">
         <v>54</v>
@@ -6591,7 +6597,7 @@
       </c>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="23"/>
       <c r="B41" s="23" t="s">
         <v>55</v>
@@ -6605,7 +6611,7 @@
       </c>
       <c r="H41" s="28"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="23"/>
       <c r="B42" s="23" t="s">
         <v>51</v>
@@ -6658,26 +6664,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -6807,7 +6813,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -6829,7 +6835,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -6843,7 +6849,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -6871,7 +6877,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -6927,7 +6933,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -6983,7 +6989,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7039,7 +7045,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7217,7 +7223,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7239,7 +7245,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -7261,7 +7267,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -7275,7 +7281,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -7297,7 +7303,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7319,7 +7325,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -7341,7 +7347,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -7355,7 +7361,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -7424,26 +7430,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -7565,7 +7571,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -7579,7 +7585,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -7593,7 +7599,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -7621,7 +7627,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -7677,7 +7683,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7733,7 +7739,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7789,7 +7795,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7967,7 +7973,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7989,7 +7995,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -8011,7 +8017,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -8033,7 +8039,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -8055,7 +8061,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -8069,7 +8075,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -8083,7 +8089,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -8097,7 +8103,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -8158,34 +8164,34 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
     <col min="9" max="21" width="9" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
-    <col min="23" max="23" width="17.125" customWidth="1"/>
-    <col min="24" max="24" width="18.5" customWidth="1"/>
-    <col min="25" max="25" width="26.375" customWidth="1"/>
-    <col min="26" max="26" width="21.875" customWidth="1"/>
-    <col min="27" max="27" width="38.125" customWidth="1"/>
-    <col min="28" max="28" width="71.75" customWidth="1"/>
+    <col min="23" max="23" width="17.08984375" customWidth="1"/>
+    <col min="24" max="24" width="18.453125" customWidth="1"/>
+    <col min="25" max="25" width="26.36328125" customWidth="1"/>
+    <col min="26" max="26" width="21.90625" customWidth="1"/>
+    <col min="27" max="27" width="38.08984375" customWidth="1"/>
+    <col min="28" max="28" width="71.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="33.75">
+    <row r="1" spans="1:28" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -8335,7 +8341,7 @@
       </c>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="16.5">
+    <row r="5" spans="1:28" ht="26">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -8413,7 +8419,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="24">
+    <row r="7" spans="1:28" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -8447,7 +8453,7 @@
       </c>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" spans="1:28" ht="24">
+    <row r="8" spans="1:28" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -8477,7 +8483,7 @@
       </c>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:28" ht="16.5">
+    <row r="9" spans="1:28" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -8533,7 +8539,7 @@
       </c>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" spans="1:28" ht="16.5">
+    <row r="11" spans="1:28" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -8635,7 +8641,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:28" ht="16.5">
+    <row r="15" spans="1:28" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -8691,7 +8697,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -8747,7 +8753,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -8925,7 +8931,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -8943,7 +8949,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -8957,7 +8963,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -8971,7 +8977,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -8985,7 +8991,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -8999,7 +9005,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -9013,7 +9019,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -9027,7 +9033,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>

--- a/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XJT17\Desktop\xutao\hgkj_01\梁卫鸿\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNHJ\Desktop\hgkj_01\梁卫鸿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27E3F8F-F680-4473-B443-E99A165C85A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65055FC0-2501-4E44-B006-5229BA39B135}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -334,7 +334,7 @@
     <numFmt numFmtId="178" formatCode="[$-804]yyyy\-m\-d"/>
     <numFmt numFmtId="179" formatCode="[$-804]h:mm:ss"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -934,23 +934,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="30.36328125" customWidth="1"/>
-    <col min="8" max="8" width="99.90625" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="99.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -962,7 +962,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="28">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -988,7 +988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1104,7 +1104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="16.5">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -1638,7 +1638,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="16.5">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="35"/>
@@ -1742,7 +1742,7 @@
       <c r="G45" s="37"/>
       <c r="H45" s="38"/>
     </row>
-    <row r="46" spans="1:8" ht="16.5">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="35"/>
@@ -1752,7 +1752,7 @@
       <c r="G46" s="37"/>
       <c r="H46" s="38"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="35"/>
@@ -1762,7 +1762,7 @@
       <c r="G47" s="37"/>
       <c r="H47" s="38"/>
     </row>
-    <row r="48" spans="1:8" ht="16.5">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="35"/>
@@ -1772,7 +1772,7 @@
       <c r="G48" s="37"/>
       <c r="H48" s="38"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="35"/>
@@ -1782,7 +1782,7 @@
       <c r="G49" s="37"/>
       <c r="H49" s="38"/>
     </row>
-    <row r="50" spans="1:8" ht="16.5">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="35"/>
@@ -1792,7 +1792,7 @@
       <c r="G50" s="37"/>
       <c r="H50" s="38"/>
     </row>
-    <row r="51" spans="1:8" ht="16.5">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="35"/>
@@ -1802,7 +1802,7 @@
       <c r="G51" s="37"/>
       <c r="H51" s="38"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="35"/>
@@ -1812,7 +1812,7 @@
       <c r="G52" s="37"/>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" spans="1:8" ht="16.5">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="35"/>
@@ -1836,23 +1836,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -2380,11 +2380,11 @@
         <v>1</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -2392,33 +2392,43 @@
       <c r="C35" s="4">
         <v>43643</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="4">
+        <v>43644</v>
+      </c>
       <c r="E35" s="5">
         <v>0.875</v>
       </c>
       <c r="F35" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="6"/>
+      <c r="C36" s="4">
+        <v>43647</v>
+      </c>
+      <c r="D36" s="4">
+        <v>43647</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
       <c r="G36" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -2432,21 +2442,29 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
+      <c r="C38" s="4">
+        <v>43644</v>
+      </c>
+      <c r="D38" s="4">
+        <v>43645</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
       <c r="G38" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -2454,33 +2472,43 @@
       <c r="C39" s="4">
         <v>43643</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="4">
+        <v>43644</v>
+      </c>
       <c r="E39" s="5">
         <v>0.875</v>
       </c>
       <c r="F39" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="6"/>
+      <c r="C40" s="4">
+        <v>43648</v>
+      </c>
+      <c r="D40" s="4">
+        <v>43648</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
       <c r="G40" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -2494,21 +2522,25 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="C42" s="4">
+        <v>43649</v>
+      </c>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="6"/>
+      <c r="F42" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G42" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -2522,7 +2554,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -2559,19 +2591,19 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2583,7 +2615,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2609,7 +2641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2633,7 +2665,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2657,7 +2689,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -2677,7 +2709,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -2699,7 +2731,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -2721,7 +2753,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -2743,7 +2775,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -2765,7 +2797,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -2787,7 +2819,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2809,7 +2841,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -2831,7 +2863,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -2851,7 +2883,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -2873,7 +2905,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2895,7 +2927,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -2917,7 +2949,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -2937,7 +2969,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -2959,7 +2991,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2981,7 +3013,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -3003,7 +3035,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -3023,7 +3055,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -3045,7 +3077,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3067,7 +3099,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -3089,7 +3121,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -3109,7 +3141,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -3131,7 +3163,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -3153,7 +3185,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -3173,7 +3205,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -3193,7 +3225,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -3215,7 +3247,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -3235,7 +3267,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -3257,7 +3289,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -3281,7 +3313,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -3303,7 +3335,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -3323,7 +3355,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -3337,7 +3369,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -3351,7 +3383,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -3365,7 +3397,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3379,7 +3411,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -3393,7 +3425,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -3407,7 +3439,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -3421,7 +3453,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -3435,7 +3467,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -3467,19 +3499,19 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3491,7 +3523,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3517,7 +3549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3541,7 +3573,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3565,7 +3597,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -3585,7 +3617,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -3607,7 +3639,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -3629,7 +3661,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -3651,7 +3683,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -3673,7 +3705,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -3695,7 +3727,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -3717,7 +3749,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -3739,7 +3771,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -3761,7 +3793,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -3783,7 +3815,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -3805,7 +3837,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -3827,7 +3859,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -3849,7 +3881,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -3871,7 +3903,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3893,7 +3925,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -3907,7 +3939,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -3929,7 +3961,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -3951,7 +3983,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3973,7 +4005,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -3987,7 +4019,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -4001,7 +4033,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -4015,7 +4047,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -4029,7 +4061,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -4043,7 +4075,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -4065,7 +4097,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -4079,7 +4111,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -4093,7 +4125,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -4109,7 +4141,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -4133,7 +4165,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -4147,7 +4179,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4167,7 +4199,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4181,7 +4213,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4195,7 +4227,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4209,7 +4241,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -4223,7 +4255,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -4237,7 +4269,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -4251,7 +4283,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -4265,7 +4297,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -4279,7 +4311,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -4307,23 +4339,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -4335,7 +4367,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4361,7 +4393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -4385,7 +4417,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4409,7 +4441,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -4431,7 +4463,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -4453,7 +4485,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -4475,7 +4507,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -4497,7 +4529,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -4519,7 +4551,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -4541,7 +4573,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4563,7 +4595,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -4577,7 +4609,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -4591,7 +4623,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -4605,7 +4637,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -4627,7 +4659,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -4641,7 +4673,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -4655,7 +4687,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -4669,7 +4701,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -4691,7 +4723,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -4705,7 +4737,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -4719,7 +4751,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -4733,7 +4765,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4755,7 +4787,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -4769,7 +4801,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -4783,7 +4815,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -4797,7 +4829,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -4811,7 +4843,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -4833,7 +4865,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -4847,13 +4879,13 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="4">
-        <v>43649</v>
+        <v>43647</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="14">
@@ -4867,7 +4899,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -4881,7 +4913,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -4895,7 +4927,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -4919,7 +4951,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -4941,7 +4973,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4963,7 +4995,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4985,7 +5017,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5007,7 +5039,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5021,7 +5053,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -5043,7 +5075,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -5065,7 +5097,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5087,7 +5119,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5109,13 +5141,13 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C43" s="4">
-        <v>43649</v>
+        <v>43647</v>
       </c>
       <c r="D43" s="4">
         <v>43647</v>
@@ -5131,7 +5163,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -5163,19 +5195,19 @@
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5187,7 +5219,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5213,7 +5245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -5239,7 +5271,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -5255,7 +5287,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -5277,7 +5309,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -5299,7 +5331,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -5313,7 +5345,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -5327,7 +5359,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -5341,7 +5373,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -5355,7 +5387,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -5369,7 +5401,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -5383,7 +5415,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -5397,7 +5429,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -5411,7 +5443,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -5425,7 +5457,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -5439,7 +5471,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -5453,7 +5485,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -5467,7 +5499,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -5481,7 +5513,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -5495,7 +5527,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -5509,7 +5541,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -5523,7 +5555,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -5537,7 +5569,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -5551,7 +5583,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -5565,7 +5597,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -5579,7 +5611,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -5593,7 +5625,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -5607,7 +5639,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -5621,7 +5653,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -5635,7 +5667,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -5649,7 +5681,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -5663,7 +5695,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -5689,7 +5721,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -5711,7 +5743,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -5733,7 +5765,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5755,7 +5787,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5777,7 +5809,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5799,7 +5831,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -5821,7 +5853,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -5843,7 +5875,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5857,7 +5889,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5879,7 +5911,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -5893,7 +5925,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -5930,18 +5962,18 @@
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -5953,7 +5985,7 @@
       <c r="G1" s="41"/>
       <c r="H1" s="42"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -5979,7 +6011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
@@ -6003,7 +6035,7 @@
       </c>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
@@ -6027,7 +6059,7 @@
       </c>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
       <c r="B5" s="23" t="s">
         <v>14</v>
@@ -6049,7 +6081,7 @@
       </c>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
       <c r="B6" s="23" t="s">
         <v>15</v>
@@ -6063,7 +6095,7 @@
       </c>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A7" s="29"/>
       <c r="B7" s="23" t="s">
         <v>16</v>
@@ -6077,7 +6109,7 @@
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A8" s="29"/>
       <c r="B8" s="23" t="s">
         <v>18</v>
@@ -6091,7 +6123,7 @@
       </c>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A9" s="29"/>
       <c r="B9" s="23" t="s">
         <v>20</v>
@@ -6105,7 +6137,7 @@
       </c>
       <c r="H9" s="28"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29"/>
       <c r="B10" s="23" t="s">
         <v>21</v>
@@ -6119,7 +6151,7 @@
       </c>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="29"/>
       <c r="B11" s="23" t="s">
         <v>23</v>
@@ -6133,7 +6165,7 @@
       </c>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="29"/>
       <c r="B12" s="23" t="s">
         <v>24</v>
@@ -6147,7 +6179,7 @@
       </c>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="29"/>
       <c r="B13" s="23" t="s">
         <v>25</v>
@@ -6161,7 +6193,7 @@
       </c>
       <c r="H13" s="28"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="29"/>
       <c r="B14" s="23" t="s">
         <v>26</v>
@@ -6175,7 +6207,7 @@
       </c>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="29"/>
       <c r="B15" s="23" t="s">
         <v>27</v>
@@ -6189,7 +6221,7 @@
       </c>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="29"/>
       <c r="B16" s="23" t="s">
         <v>28</v>
@@ -6203,7 +6235,7 @@
       </c>
       <c r="H16" s="28"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="29"/>
       <c r="B17" s="23" t="s">
         <v>29</v>
@@ -6217,7 +6249,7 @@
       </c>
       <c r="H17" s="28"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="29"/>
       <c r="B18" s="23" t="s">
         <v>30</v>
@@ -6231,7 +6263,7 @@
       </c>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="29"/>
       <c r="B19" s="23" t="s">
         <v>31</v>
@@ -6245,7 +6277,7 @@
       </c>
       <c r="H19" s="28"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="29"/>
       <c r="B20" s="23" t="s">
         <v>32</v>
@@ -6259,7 +6291,7 @@
       </c>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="29"/>
       <c r="B21" s="23" t="s">
         <v>33</v>
@@ -6273,7 +6305,7 @@
       </c>
       <c r="H21" s="28"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="29"/>
       <c r="B22" s="23" t="s">
         <v>34</v>
@@ -6287,7 +6319,7 @@
       </c>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A23" s="24"/>
       <c r="B23" s="23" t="s">
         <v>35</v>
@@ -6301,7 +6333,7 @@
       </c>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="29"/>
       <c r="B24" s="23" t="s">
         <v>36</v>
@@ -6315,7 +6347,7 @@
       </c>
       <c r="H24" s="28"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="29"/>
       <c r="B25" s="23" t="s">
         <v>37</v>
@@ -6329,7 +6361,7 @@
       </c>
       <c r="H25" s="28"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="29"/>
       <c r="B26" s="23" t="s">
         <v>38</v>
@@ -6343,7 +6375,7 @@
       </c>
       <c r="H26" s="28"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="29"/>
       <c r="B27" s="23" t="s">
         <v>39</v>
@@ -6357,7 +6389,7 @@
       </c>
       <c r="H27" s="28"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="29"/>
       <c r="B28" s="23" t="s">
         <v>40</v>
@@ -6371,7 +6403,7 @@
       </c>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="s">
         <v>41</v>
@@ -6385,7 +6417,7 @@
       </c>
       <c r="H29" s="28"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="29"/>
       <c r="B30" s="23" t="s">
         <v>42</v>
@@ -6399,7 +6431,7 @@
       </c>
       <c r="H30" s="28"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="29"/>
       <c r="B31" s="23" t="s">
         <v>43</v>
@@ -6413,7 +6445,7 @@
       </c>
       <c r="H31" s="28"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="29"/>
       <c r="B32" s="23" t="s">
         <v>44</v>
@@ -6427,7 +6459,7 @@
       </c>
       <c r="H32" s="28"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="32" t="s">
         <v>45</v>
       </c>
@@ -6451,7 +6483,7 @@
       </c>
       <c r="H33" s="28"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="32"/>
       <c r="B34" s="23" t="s">
         <v>47</v>
@@ -6473,7 +6505,7 @@
       </c>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="22"/>
       <c r="B35" s="23" t="s">
         <v>48</v>
@@ -6495,7 +6527,7 @@
       </c>
       <c r="H35" s="28"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A36" s="22"/>
       <c r="B36" s="23" t="s">
         <v>49</v>
@@ -6517,7 +6549,7 @@
       </c>
       <c r="H36" s="28"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A37" s="22"/>
       <c r="B37" s="23" t="s">
         <v>50</v>
@@ -6539,7 +6571,7 @@
       </c>
       <c r="H37" s="28"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="22"/>
       <c r="B38" s="23" t="s">
         <v>51</v>
@@ -6561,7 +6593,7 @@
       </c>
       <c r="H38" s="28"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A39" s="22"/>
       <c r="B39" s="23" t="s">
         <v>52</v>
@@ -6583,7 +6615,7 @@
       </c>
       <c r="H39" s="28"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
       <c r="B40" s="23" t="s">
         <v>54</v>
@@ -6597,7 +6629,7 @@
       </c>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A41" s="23"/>
       <c r="B41" s="23" t="s">
         <v>55</v>
@@ -6611,7 +6643,7 @@
       </c>
       <c r="H41" s="28"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="23"/>
       <c r="B42" s="23" t="s">
         <v>51</v>
@@ -6625,7 +6657,7 @@
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="33"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -6639,7 +6671,7 @@
       </c>
       <c r="H43" s="28"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
         <v>57</v>
       </c>
@@ -6671,19 +6703,19 @@
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -6695,7 +6727,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6721,7 +6753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -6745,7 +6777,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -6769,7 +6801,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -6791,7 +6823,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -6813,7 +6845,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -6835,7 +6867,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -6849,7 +6881,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -6863,7 +6895,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -6877,7 +6909,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -6891,7 +6923,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -6905,7 +6937,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -6919,7 +6951,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -6933,7 +6965,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -6947,7 +6979,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -6961,7 +6993,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -6975,7 +7007,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -6989,7 +7021,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7003,7 +7035,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -7017,7 +7049,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -7031,7 +7063,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -7045,7 +7077,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7059,7 +7091,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -7073,7 +7105,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -7087,7 +7119,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -7101,7 +7133,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -7115,7 +7147,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -7129,7 +7161,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -7143,7 +7175,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -7157,7 +7189,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -7171,7 +7203,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -7185,7 +7217,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -7209,7 +7241,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -7223,7 +7255,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7245,7 +7277,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -7267,7 +7299,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -7281,7 +7313,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -7303,7 +7335,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7325,7 +7357,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -7347,7 +7379,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -7361,7 +7393,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -7383,7 +7415,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -7405,7 +7437,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -7437,19 +7469,19 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -7461,7 +7493,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7487,7 +7519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -7511,7 +7543,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -7535,7 +7567,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -7557,7 +7589,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -7571,7 +7603,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -7585,7 +7617,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -7599,7 +7631,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -7613,7 +7645,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -7627,7 +7659,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -7641,7 +7673,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -7655,7 +7687,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -7669,7 +7701,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -7683,7 +7715,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7697,7 +7729,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -7711,7 +7743,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -7725,7 +7757,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -7739,7 +7771,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7753,7 +7785,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -7767,7 +7799,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -7781,7 +7813,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -7795,7 +7827,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7809,7 +7841,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -7823,7 +7855,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -7837,7 +7869,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -7851,7 +7883,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -7865,7 +7897,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -7879,7 +7911,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -7893,7 +7925,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -7907,7 +7939,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -7921,7 +7953,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -7935,7 +7967,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -7959,7 +7991,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -7973,7 +8005,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7995,7 +8027,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -8017,7 +8049,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -8039,7 +8071,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -8061,7 +8093,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -8075,7 +8107,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -8089,7 +8121,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -8103,7 +8135,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -8125,7 +8157,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -8139,7 +8171,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -8171,27 +8203,27 @@
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
     <col min="9" max="21" width="9" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
-    <col min="23" max="23" width="17.08984375" customWidth="1"/>
-    <col min="24" max="24" width="18.453125" customWidth="1"/>
-    <col min="25" max="25" width="26.36328125" customWidth="1"/>
-    <col min="26" max="26" width="21.90625" customWidth="1"/>
-    <col min="27" max="27" width="38.08984375" customWidth="1"/>
-    <col min="28" max="28" width="71.7265625" customWidth="1"/>
+    <col min="23" max="23" width="17.109375" customWidth="1"/>
+    <col min="24" max="24" width="18.44140625" customWidth="1"/>
+    <col min="25" max="25" width="26.33203125" customWidth="1"/>
+    <col min="26" max="26" width="21.88671875" customWidth="1"/>
+    <col min="27" max="27" width="38.109375" customWidth="1"/>
+    <col min="28" max="28" width="71.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="33">
+    <row r="1" spans="1:28" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -8213,7 +8245,7 @@
       <c r="AA1" s="39"/>
       <c r="AB1" s="39"/>
     </row>
-    <row r="2" spans="1:28" ht="27" customHeight="1">
+    <row r="2" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8263,7 +8295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="16.5">
+    <row r="3" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -8311,7 +8343,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="16.5">
+    <row r="4" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -8341,7 +8373,7 @@
       </c>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="26">
+    <row r="5" spans="1:28" ht="24" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -8379,7 +8411,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="16.5">
+    <row r="6" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -8419,7 +8451,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="26">
+    <row r="7" spans="1:28" ht="24" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -8453,7 +8485,7 @@
       </c>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" spans="1:28" ht="26">
+    <row r="8" spans="1:28" ht="24" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -8483,7 +8515,7 @@
       </c>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:28" ht="26">
+    <row r="9" spans="1:28" ht="24" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -8511,7 +8543,7 @@
       </c>
       <c r="AB9" s="8"/>
     </row>
-    <row r="10" spans="1:28" ht="38.25" customHeight="1">
+    <row r="10" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -8539,7 +8571,7 @@
       </c>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" spans="1:28" ht="26">
+    <row r="11" spans="1:28" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -8567,7 +8599,7 @@
       </c>
       <c r="AB11" s="8"/>
     </row>
-    <row r="12" spans="1:28" ht="16.5">
+    <row r="12" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -8595,7 +8627,7 @@
       </c>
       <c r="AB12" s="8"/>
     </row>
-    <row r="13" spans="1:28" ht="16.5">
+    <row r="13" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -8627,7 +8659,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="16.5">
+    <row r="14" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -8641,7 +8673,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:28" ht="26">
+    <row r="15" spans="1:28" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -8655,7 +8687,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="16.5">
+    <row r="16" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -8669,7 +8701,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -8683,7 +8715,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -8697,7 +8729,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -8711,7 +8743,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -8725,7 +8757,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -8739,7 +8771,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -8753,7 +8785,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -8767,7 +8799,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -8781,7 +8813,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -8795,7 +8827,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -8809,7 +8841,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -8823,7 +8855,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -8837,7 +8869,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -8851,7 +8883,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -8865,7 +8897,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -8879,7 +8911,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -8893,7 +8925,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -8917,7 +8949,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -8931,7 +8963,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -8949,7 +8981,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -8963,7 +8995,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -8977,7 +9009,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -8991,7 +9023,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -9005,7 +9037,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -9019,7 +9051,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -9033,7 +9065,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -9047,7 +9079,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -9061,7 +9093,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>

--- a/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XJT17\Desktop\xutao\hgkj_01\梁卫鸿\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-UVBQ90J\Desktop\项目进度\hgkj_01\梁卫鸿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27E3F8F-F680-4473-B443-E99A165C85A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E22885-D477-445C-8B18-D0D695010287}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4875" yWindow="720" windowWidth="21600" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -334,7 +334,7 @@
     <numFmt numFmtId="178" formatCode="[$-804]yyyy\-m\-d"/>
     <numFmt numFmtId="179" formatCode="[$-804]h:mm:ss"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -938,19 +938,19 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="30.36328125" customWidth="1"/>
-    <col min="8" max="8" width="99.90625" customWidth="1"/>
+    <col min="7" max="7" width="30.375" customWidth="1"/>
+    <col min="8" max="8" width="99.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -962,7 +962,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="28">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -988,7 +988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1104,7 +1104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5">
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5">
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="16.5">
+    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5">
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -1638,7 +1638,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5">
+    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5">
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="16.5">
+    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="35"/>
@@ -1742,7 +1742,7 @@
       <c r="G45" s="37"/>
       <c r="H45" s="38"/>
     </row>
-    <row r="46" spans="1:8" ht="16.5">
+    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="35"/>
@@ -1752,7 +1752,7 @@
       <c r="G46" s="37"/>
       <c r="H46" s="38"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5">
+    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="35"/>
@@ -1762,7 +1762,7 @@
       <c r="G47" s="37"/>
       <c r="H47" s="38"/>
     </row>
-    <row r="48" spans="1:8" ht="16.5">
+    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="35"/>
@@ -1772,7 +1772,7 @@
       <c r="G48" s="37"/>
       <c r="H48" s="38"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5">
+    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="35"/>
@@ -1782,7 +1782,7 @@
       <c r="G49" s="37"/>
       <c r="H49" s="38"/>
     </row>
-    <row r="50" spans="1:8" ht="16.5">
+    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="35"/>
@@ -1792,7 +1792,7 @@
       <c r="G50" s="37"/>
       <c r="H50" s="38"/>
     </row>
-    <row r="51" spans="1:8" ht="16.5">
+    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="35"/>
@@ -1802,7 +1802,7 @@
       <c r="G51" s="37"/>
       <c r="H51" s="38"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5">
+    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="35"/>
@@ -1812,7 +1812,7 @@
       <c r="G52" s="37"/>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" spans="1:8" ht="16.5">
+    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="35"/>
@@ -1840,19 +1840,19 @@
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -2555,23 +2555,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2583,7 +2583,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -2665,7 +2665,9 @@
       <c r="C5" s="4">
         <v>43639</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4">
+        <v>43639</v>
+      </c>
       <c r="E5" s="14">
         <v>0.875</v>
       </c>
@@ -2677,7 +2679,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -2699,7 +2701,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -2721,7 +2723,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -2743,7 +2745,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -2765,7 +2767,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -2787,7 +2789,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2809,7 +2811,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -2831,7 +2833,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -2839,19 +2841,21 @@
       <c r="C13" s="4">
         <v>43644</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4">
+        <v>43649</v>
+      </c>
       <c r="E13" s="14">
         <v>0.875</v>
       </c>
       <c r="F13" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -2873,7 +2877,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2895,7 +2899,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -2917,7 +2921,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -2925,19 +2929,21 @@
       <c r="C17" s="4">
         <v>43644</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4">
+        <v>43649</v>
+      </c>
       <c r="E17" s="14">
         <v>0.875</v>
       </c>
       <c r="F17" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -2959,7 +2965,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2981,7 +2987,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -2999,11 +3005,11 @@
         <v>1</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -3011,19 +3017,21 @@
       <c r="C21" s="4">
         <v>43644</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4">
+        <v>43649</v>
+      </c>
       <c r="E21" s="14">
         <v>0.875</v>
       </c>
       <c r="F21" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -3045,7 +3053,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3067,7 +3075,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -3089,7 +3097,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -3097,19 +3105,21 @@
       <c r="C25" s="4">
         <v>43644</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4">
+        <v>43649</v>
+      </c>
       <c r="E25" s="14">
         <v>0.875</v>
       </c>
       <c r="F25" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -3131,7 +3141,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -3153,7 +3163,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -3161,19 +3171,21 @@
       <c r="C28" s="4">
         <v>43644</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4">
+        <v>43647</v>
+      </c>
       <c r="E28" s="14">
         <v>0.875</v>
       </c>
       <c r="F28" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -3181,19 +3193,21 @@
       <c r="C29" s="4">
         <v>43644</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4">
+        <v>43647</v>
+      </c>
       <c r="E29" s="14">
         <v>0.875</v>
       </c>
       <c r="F29" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -3215,7 +3229,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -3223,19 +3237,21 @@
       <c r="C31" s="4">
         <v>43644</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="4">
+        <v>43648</v>
+      </c>
       <c r="E31" s="14">
         <v>0.875</v>
       </c>
       <c r="F31" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -3257,7 +3273,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -3281,7 +3297,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -3303,7 +3319,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -3323,7 +3339,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -3337,7 +3353,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -3351,7 +3367,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -3365,7 +3381,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3379,7 +3395,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -3393,7 +3409,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -3407,7 +3423,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -3421,7 +3437,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -3435,7 +3451,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -3463,23 +3479,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3491,7 +3507,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3517,7 +3533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3541,7 +3557,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3565,7 +3581,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -3585,7 +3601,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -3607,7 +3623,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -3629,7 +3645,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -3651,7 +3667,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -3666,14 +3682,14 @@
         <v>0.875</v>
       </c>
       <c r="F9" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -3695,7 +3711,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -3717,7 +3733,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -3739,7 +3755,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -3757,11 +3773,11 @@
         <v>1</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -3783,7 +3799,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -3805,7 +3821,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -3827,7 +3843,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -3842,14 +3858,14 @@
         <v>0.875</v>
       </c>
       <c r="F17" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -3871,7 +3887,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3893,21 +3909,29 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
+      <c r="C20" s="4">
+        <v>43649</v>
+      </c>
+      <c r="D20" s="4">
+        <v>43649</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -3929,7 +3953,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -3951,7 +3975,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3973,35 +3997,51 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="6"/>
+      <c r="C24" s="4">
+        <v>43649</v>
+      </c>
+      <c r="D24" s="4">
+        <v>43649</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
       <c r="G24" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="6"/>
+      <c r="C25" s="4">
+        <v>43649</v>
+      </c>
+      <c r="D25" s="4">
+        <v>43649</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -4015,7 +4055,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -4029,21 +4069,29 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="6"/>
+      <c r="C28" s="4">
+        <v>43645</v>
+      </c>
+      <c r="D28" s="4">
+        <v>43645</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
       <c r="G28" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -4065,35 +4113,51 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="6"/>
+      <c r="C30" s="4">
+        <v>43648</v>
+      </c>
+      <c r="D30" s="4">
+        <v>43648</v>
+      </c>
+      <c r="E30" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
       <c r="G30" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="6"/>
+      <c r="C31" s="4">
+        <v>43648</v>
+      </c>
+      <c r="D31" s="4">
+        <v>43648</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
       <c r="G31" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -4101,15 +4165,21 @@
       <c r="C32" s="4">
         <v>43641</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="6"/>
+      <c r="D32" s="4">
+        <v>43641</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
       <c r="G32" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -4133,7 +4203,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -4147,7 +4217,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4167,7 +4237,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4181,7 +4251,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4195,7 +4265,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4209,7 +4279,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -4223,7 +4293,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -4237,7 +4307,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -4251,7 +4321,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -4265,7 +4335,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -4279,7 +4349,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -4307,23 +4377,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -4335,7 +4405,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4361,7 +4431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -4385,7 +4455,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4409,7 +4479,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -4431,7 +4501,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -4453,7 +4523,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -4475,7 +4545,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -4497,7 +4567,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -4519,7 +4589,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -4541,7 +4611,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4563,7 +4633,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -4577,7 +4647,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -4591,7 +4661,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -4605,7 +4675,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -4627,7 +4697,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -4641,7 +4711,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -4655,7 +4725,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -4669,7 +4739,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -4691,7 +4761,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -4705,7 +4775,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -4719,7 +4789,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -4733,7 +4803,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4755,7 +4825,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -4769,7 +4839,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -4783,7 +4853,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -4797,7 +4867,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -4811,7 +4881,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -4833,7 +4903,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -4847,7 +4917,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -4867,7 +4937,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -4881,7 +4951,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -4895,7 +4965,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -4919,7 +4989,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -4941,7 +5011,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4963,7 +5033,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4985,7 +5055,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5007,7 +5077,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5021,7 +5091,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -5043,7 +5113,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -5065,7 +5135,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5087,7 +5157,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5109,7 +5179,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -5131,7 +5201,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -5163,19 +5233,19 @@
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5187,7 +5257,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5213,7 +5283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -5239,7 +5309,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -5255,7 +5325,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -5277,7 +5347,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -5299,7 +5369,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -5313,7 +5383,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -5327,7 +5397,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -5341,7 +5411,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -5355,7 +5425,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -5369,7 +5439,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -5383,7 +5453,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -5397,7 +5467,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -5411,7 +5481,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -5425,7 +5495,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -5439,7 +5509,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -5453,7 +5523,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -5467,7 +5537,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -5481,7 +5551,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -5495,7 +5565,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -5509,7 +5579,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -5523,7 +5593,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -5537,7 +5607,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -5551,7 +5621,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -5565,7 +5635,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -5579,7 +5649,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -5593,7 +5663,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -5607,7 +5677,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -5621,7 +5691,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -5635,7 +5705,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -5649,7 +5719,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -5663,7 +5733,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -5689,7 +5759,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -5711,7 +5781,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -5733,7 +5803,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5755,7 +5825,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5777,7 +5847,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5799,7 +5869,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -5821,7 +5891,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -5843,7 +5913,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5857,7 +5927,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5879,7 +5949,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -5893,7 +5963,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -5930,18 +6000,18 @@
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -5953,7 +6023,7 @@
       <c r="G1" s="41"/>
       <c r="H1" s="42"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -5979,7 +6049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
@@ -6003,7 +6073,7 @@
       </c>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
@@ -6027,7 +6097,7 @@
       </c>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="23" t="s">
         <v>14</v>
@@ -6049,7 +6119,7 @@
       </c>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="22"/>
       <c r="B6" s="23" t="s">
         <v>15</v>
@@ -6063,7 +6133,7 @@
       </c>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="29"/>
       <c r="B7" s="23" t="s">
         <v>16</v>
@@ -6077,7 +6147,7 @@
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
       <c r="B8" s="23" t="s">
         <v>18</v>
@@ -6091,7 +6161,7 @@
       </c>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="29"/>
       <c r="B9" s="23" t="s">
         <v>20</v>
@@ -6105,7 +6175,7 @@
       </c>
       <c r="H9" s="28"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
       <c r="B10" s="23" t="s">
         <v>21</v>
@@ -6119,7 +6189,7 @@
       </c>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="29"/>
       <c r="B11" s="23" t="s">
         <v>23</v>
@@ -6133,7 +6203,7 @@
       </c>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="29"/>
       <c r="B12" s="23" t="s">
         <v>24</v>
@@ -6147,7 +6217,7 @@
       </c>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
       <c r="B13" s="23" t="s">
         <v>25</v>
@@ -6161,7 +6231,7 @@
       </c>
       <c r="H13" s="28"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
       <c r="B14" s="23" t="s">
         <v>26</v>
@@ -6175,7 +6245,7 @@
       </c>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
       <c r="B15" s="23" t="s">
         <v>27</v>
@@ -6189,7 +6259,7 @@
       </c>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="29"/>
       <c r="B16" s="23" t="s">
         <v>28</v>
@@ -6203,7 +6273,7 @@
       </c>
       <c r="H16" s="28"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
       <c r="B17" s="23" t="s">
         <v>29</v>
@@ -6217,7 +6287,7 @@
       </c>
       <c r="H17" s="28"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
       <c r="B18" s="23" t="s">
         <v>30</v>
@@ -6231,7 +6301,7 @@
       </c>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
       <c r="B19" s="23" t="s">
         <v>31</v>
@@ -6245,7 +6315,7 @@
       </c>
       <c r="H19" s="28"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="29"/>
       <c r="B20" s="23" t="s">
         <v>32</v>
@@ -6259,7 +6329,7 @@
       </c>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
       <c r="B21" s="23" t="s">
         <v>33</v>
@@ -6273,7 +6343,7 @@
       </c>
       <c r="H21" s="28"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="29"/>
       <c r="B22" s="23" t="s">
         <v>34</v>
@@ -6287,7 +6357,7 @@
       </c>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
       <c r="B23" s="23" t="s">
         <v>35</v>
@@ -6301,7 +6371,7 @@
       </c>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
       <c r="B24" s="23" t="s">
         <v>36</v>
@@ -6315,7 +6385,7 @@
       </c>
       <c r="H24" s="28"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="29"/>
       <c r="B25" s="23" t="s">
         <v>37</v>
@@ -6329,7 +6399,7 @@
       </c>
       <c r="H25" s="28"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
       <c r="B26" s="23" t="s">
         <v>38</v>
@@ -6343,7 +6413,7 @@
       </c>
       <c r="H26" s="28"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
       <c r="B27" s="23" t="s">
         <v>39</v>
@@ -6357,7 +6427,7 @@
       </c>
       <c r="H27" s="28"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
       <c r="B28" s="23" t="s">
         <v>40</v>
@@ -6371,7 +6441,7 @@
       </c>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="s">
         <v>41</v>
@@ -6385,7 +6455,7 @@
       </c>
       <c r="H29" s="28"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="29"/>
       <c r="B30" s="23" t="s">
         <v>42</v>
@@ -6399,7 +6469,7 @@
       </c>
       <c r="H30" s="28"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="29"/>
       <c r="B31" s="23" t="s">
         <v>43</v>
@@ -6413,7 +6483,7 @@
       </c>
       <c r="H31" s="28"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="29"/>
       <c r="B32" s="23" t="s">
         <v>44</v>
@@ -6427,7 +6497,7 @@
       </c>
       <c r="H32" s="28"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
         <v>45</v>
       </c>
@@ -6451,7 +6521,7 @@
       </c>
       <c r="H33" s="28"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="32"/>
       <c r="B34" s="23" t="s">
         <v>47</v>
@@ -6473,7 +6543,7 @@
       </c>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="22"/>
       <c r="B35" s="23" t="s">
         <v>48</v>
@@ -6495,7 +6565,7 @@
       </c>
       <c r="H35" s="28"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="22"/>
       <c r="B36" s="23" t="s">
         <v>49</v>
@@ -6517,7 +6587,7 @@
       </c>
       <c r="H36" s="28"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="22"/>
       <c r="B37" s="23" t="s">
         <v>50</v>
@@ -6539,7 +6609,7 @@
       </c>
       <c r="H37" s="28"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A38" s="22"/>
       <c r="B38" s="23" t="s">
         <v>51</v>
@@ -6561,7 +6631,7 @@
       </c>
       <c r="H38" s="28"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="22"/>
       <c r="B39" s="23" t="s">
         <v>52</v>
@@ -6583,7 +6653,7 @@
       </c>
       <c r="H39" s="28"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="23" t="s">
         <v>54</v>
@@ -6597,7 +6667,7 @@
       </c>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="23" t="s">
         <v>55</v>
@@ -6611,7 +6681,7 @@
       </c>
       <c r="H41" s="28"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="23" t="s">
         <v>51</v>
@@ -6625,7 +6695,7 @@
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="33"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -6639,7 +6709,7 @@
       </c>
       <c r="H43" s="28"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="32" t="s">
         <v>57</v>
       </c>
@@ -6671,19 +6741,19 @@
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -6695,7 +6765,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6721,7 +6791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -6745,7 +6815,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -6769,7 +6839,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -6791,7 +6861,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -6813,7 +6883,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -6835,7 +6905,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -6849,7 +6919,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -6863,7 +6933,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -6877,7 +6947,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -6891,7 +6961,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -6905,7 +6975,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -6919,7 +6989,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -6933,7 +7003,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -6947,7 +7017,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -6961,7 +7031,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -6975,7 +7045,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -6989,7 +7059,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7003,7 +7073,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -7017,7 +7087,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -7031,7 +7101,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -7045,7 +7115,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7059,7 +7129,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -7073,7 +7143,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -7087,7 +7157,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -7101,7 +7171,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -7115,7 +7185,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -7129,7 +7199,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -7143,7 +7213,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -7157,7 +7227,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -7171,7 +7241,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -7185,7 +7255,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -7209,7 +7279,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -7223,7 +7293,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7245,7 +7315,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -7267,7 +7337,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -7281,7 +7351,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -7303,7 +7373,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7325,7 +7395,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -7347,7 +7417,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -7361,7 +7431,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -7383,7 +7453,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -7405,7 +7475,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -7437,19 +7507,19 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -7461,7 +7531,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7487,7 +7557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -7511,7 +7581,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -7535,7 +7605,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -7557,7 +7627,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -7571,7 +7641,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -7585,7 +7655,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -7599,7 +7669,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -7613,7 +7683,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -7627,7 +7697,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -7641,7 +7711,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -7655,7 +7725,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -7669,7 +7739,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -7683,7 +7753,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7697,7 +7767,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -7711,7 +7781,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -7725,7 +7795,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -7739,7 +7809,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7753,7 +7823,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -7767,7 +7837,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -7781,7 +7851,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -7795,7 +7865,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7809,7 +7879,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -7823,7 +7893,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -7837,7 +7907,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -7851,7 +7921,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -7865,7 +7935,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -7879,7 +7949,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -7893,7 +7963,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -7907,7 +7977,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -7921,7 +7991,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -7935,7 +8005,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -7959,7 +8029,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -7973,7 +8043,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7995,7 +8065,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -8017,7 +8087,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -8039,7 +8109,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -8061,7 +8131,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -8075,7 +8145,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -8089,7 +8159,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -8103,7 +8173,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -8125,7 +8195,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -8139,7 +8209,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -8171,27 +8241,27 @@
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
     <col min="9" max="21" width="9" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
-    <col min="23" max="23" width="17.08984375" customWidth="1"/>
-    <col min="24" max="24" width="18.453125" customWidth="1"/>
-    <col min="25" max="25" width="26.36328125" customWidth="1"/>
-    <col min="26" max="26" width="21.90625" customWidth="1"/>
-    <col min="27" max="27" width="38.08984375" customWidth="1"/>
-    <col min="28" max="28" width="71.7265625" customWidth="1"/>
+    <col min="23" max="23" width="17.125" customWidth="1"/>
+    <col min="24" max="24" width="18.5" customWidth="1"/>
+    <col min="25" max="25" width="26.375" customWidth="1"/>
+    <col min="26" max="26" width="21.875" customWidth="1"/>
+    <col min="27" max="27" width="38.125" customWidth="1"/>
+    <col min="28" max="28" width="71.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="33">
+    <row r="1" spans="1:28" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -8213,7 +8283,7 @@
       <c r="AA1" s="39"/>
       <c r="AB1" s="39"/>
     </row>
-    <row r="2" spans="1:28" ht="27" customHeight="1">
+    <row r="2" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8263,7 +8333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="16.5">
+    <row r="3" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -8311,7 +8381,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="16.5">
+    <row r="4" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -8341,7 +8411,7 @@
       </c>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="26">
+    <row r="5" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -8379,7 +8449,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="16.5">
+    <row r="6" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -8419,7 +8489,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="26">
+    <row r="7" spans="1:28" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -8453,7 +8523,7 @@
       </c>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" spans="1:28" ht="26">
+    <row r="8" spans="1:28" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -8483,7 +8553,7 @@
       </c>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:28" ht="26">
+    <row r="9" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -8511,7 +8581,7 @@
       </c>
       <c r="AB9" s="8"/>
     </row>
-    <row r="10" spans="1:28" ht="38.25" customHeight="1">
+    <row r="10" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -8539,7 +8609,7 @@
       </c>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" spans="1:28" ht="26">
+    <row r="11" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -8567,7 +8637,7 @@
       </c>
       <c r="AB11" s="8"/>
     </row>
-    <row r="12" spans="1:28" ht="16.5">
+    <row r="12" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -8595,7 +8665,7 @@
       </c>
       <c r="AB12" s="8"/>
     </row>
-    <row r="13" spans="1:28" ht="16.5">
+    <row r="13" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -8627,7 +8697,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="16.5">
+    <row r="14" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -8641,7 +8711,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:28" ht="26">
+    <row r="15" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -8655,7 +8725,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="16.5">
+    <row r="16" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -8669,7 +8739,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -8683,7 +8753,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -8697,7 +8767,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -8711,7 +8781,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -8725,7 +8795,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -8739,7 +8809,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -8753,7 +8823,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -8767,7 +8837,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -8781,7 +8851,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -8795,7 +8865,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -8809,7 +8879,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -8823,7 +8893,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -8837,7 +8907,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -8851,7 +8921,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -8865,7 +8935,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -8879,7 +8949,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -8893,7 +8963,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -8917,7 +8987,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -8931,7 +9001,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -8949,7 +9019,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -8963,7 +9033,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -8977,7 +9047,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -8991,7 +9061,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -9005,7 +9075,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -9019,7 +9089,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -9033,7 +9103,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -9047,7 +9117,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -9061,7 +9131,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>

--- a/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-UVBQ90J\Desktop\项目进度\hgkj_01\梁卫鸿\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E22885-D477-445C-8B18-D0D695010287}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="720" windowWidth="21600" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="89">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -88,10 +82,10 @@
     <t>首页-加入购物车功能的实现</t>
   </si>
   <si>
-    <t>未完成</t>
+    <t>首页-结算功能的实现</t>
   </si>
   <si>
-    <t>首页-结算功能的实现</t>
+    <t>未完成</t>
   </si>
   <si>
     <t>境内游-查询</t>
@@ -223,6 +217,9 @@
     <t xml:space="preserve">已完成 </t>
   </si>
   <si>
+    <t xml:space="preserve">未完成 </t>
+  </si>
+  <si>
     <t>进度控制表-文件共享系统的设计与实现</t>
   </si>
   <si>
@@ -309,32 +306,24 @@
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>已完成</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <t>未完成</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="[$-804]yyyy\-m\-d"/>
     <numFmt numFmtId="177" formatCode="[$-804]h:mm"/>
-    <numFmt numFmtId="178" formatCode="[$-804]yyyy\-m\-d"/>
+    <numFmt numFmtId="178" formatCode="h:mm;@"/>
     <numFmt numFmtId="179" formatCode="[$-804]h:mm:ss"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -352,21 +341,18 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -379,21 +365,18 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="30"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -401,14 +384,12 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="49"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -421,19 +402,11 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -447,13 +420,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="57"/>
-        <bgColor indexed="21"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
+        <bgColor indexed="21"/>
       </patternFill>
     </fill>
   </fills>
@@ -530,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -539,10 +512,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -590,7 +563,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -632,7 +605,7 @@
     <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -659,18 +632,10 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -931,14 +896,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
@@ -950,7 +915,7 @@
     <col min="8" max="8" width="99.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -962,7 +927,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -988,7 +953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1012,7 +977,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1036,7 +1001,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1058,7 +1023,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -1080,7 +1045,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1104,7 +1069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1126,21 +1091,21 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -1152,11 +1117,11 @@
       <c r="E10" s="4"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -1166,11 +1131,11 @@
       <c r="E11" s="4"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -1180,11 +1145,11 @@
       <c r="E12" s="4"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -1194,11 +1159,11 @@
       <c r="E13" s="4"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -1208,11 +1173,11 @@
       <c r="E14" s="4"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -1222,11 +1187,11 @@
       <c r="E15" s="4"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -1236,11 +1201,11 @@
       <c r="E16" s="4"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -1250,11 +1215,11 @@
       <c r="E17" s="4"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -1264,11 +1229,11 @@
       <c r="E18" s="4"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -1278,11 +1243,11 @@
       <c r="E19" s="4"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -1292,11 +1257,11 @@
       <c r="E20" s="4"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -1306,11 +1271,11 @@
       <c r="E21" s="4"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -1320,11 +1285,11 @@
       <c r="E22" s="4"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -1334,11 +1299,11 @@
       <c r="E23" s="4"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -1348,11 +1313,11 @@
       <c r="E24" s="4"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -1362,11 +1327,11 @@
       <c r="E25" s="4"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -1376,11 +1341,11 @@
       <c r="E26" s="4"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -1390,11 +1355,11 @@
       <c r="E27" s="4"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -1416,7 +1381,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -1438,7 +1403,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -1460,7 +1425,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -1470,11 +1435,11 @@
       <c r="E31" s="4"/>
       <c r="F31" s="6"/>
       <c r="G31" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -1484,11 +1449,11 @@
       <c r="E32" s="4"/>
       <c r="F32" s="6"/>
       <c r="G32" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -1512,7 +1477,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -1534,7 +1499,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="16.5">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -1556,7 +1521,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="16.5">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -1578,7 +1543,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="16.5">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -1588,11 +1553,11 @@
       <c r="E37" s="4"/>
       <c r="F37" s="6"/>
       <c r="G37" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="16.5">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -1610,11 +1575,11 @@
         <v>1</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -1638,7 +1603,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -1660,7 +1625,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -1670,11 +1635,11 @@
       <c r="E41" s="4"/>
       <c r="F41" s="6"/>
       <c r="G41" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="16.5">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -1696,7 +1661,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="8"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -1718,7 +1683,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -1728,11 +1693,11 @@
       <c r="E44" s="4"/>
       <c r="F44" s="6"/>
       <c r="G44" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="16.5">
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="35"/>
@@ -1742,7 +1707,7 @@
       <c r="G45" s="37"/>
       <c r="H45" s="38"/>
     </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="16.5">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="35"/>
@@ -1752,7 +1717,7 @@
       <c r="G46" s="37"/>
       <c r="H46" s="38"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="16.5">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="35"/>
@@ -1762,7 +1727,7 @@
       <c r="G47" s="37"/>
       <c r="H47" s="38"/>
     </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="16.5">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="35"/>
@@ -1772,7 +1737,7 @@
       <c r="G48" s="37"/>
       <c r="H48" s="38"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="16.5">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="35"/>
@@ -1782,7 +1747,7 @@
       <c r="G49" s="37"/>
       <c r="H49" s="38"/>
     </row>
-    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="16.5">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="35"/>
@@ -1792,7 +1757,7 @@
       <c r="G50" s="37"/>
       <c r="H50" s="38"/>
     </row>
-    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="16.5">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="35"/>
@@ -1802,7 +1767,7 @@
       <c r="G51" s="37"/>
       <c r="H51" s="38"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="16.5">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="35"/>
@@ -1812,7 +1777,7 @@
       <c r="G52" s="37"/>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="16.5">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="35"/>
@@ -1826,21 +1791,21 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1852,7 +1817,7 @@
     <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1864,7 +1829,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1890,7 +1855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1914,7 +1879,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1926,11 +1891,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1942,7 +1907,7 @@
         <v>43641</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -1952,7 +1917,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -1974,7 +1939,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1984,11 +1949,11 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1998,25 +1963,25 @@
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -2026,11 +1991,11 @@
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2040,11 +2005,11 @@
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -2054,11 +2019,11 @@
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -2068,11 +2033,11 @@
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -2082,11 +2047,11 @@
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2096,11 +2061,11 @@
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -2110,11 +2075,11 @@
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -2124,11 +2089,11 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -2138,11 +2103,11 @@
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2152,11 +2117,11 @@
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -2166,11 +2131,11 @@
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -2180,11 +2145,11 @@
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -2194,11 +2159,11 @@
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2208,11 +2173,11 @@
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -2222,11 +2187,11 @@
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -2236,11 +2201,11 @@
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -2250,11 +2215,11 @@
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -2264,11 +2229,11 @@
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -2278,11 +2243,11 @@
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
       <c r="G28" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -2292,11 +2257,11 @@
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
       <c r="G29" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -2306,11 +2271,11 @@
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -2320,11 +2285,11 @@
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
       <c r="G31" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -2334,11 +2299,11 @@
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
       <c r="G32" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -2362,7 +2327,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -2380,11 +2345,11 @@
         <v>1</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -2400,11 +2365,11 @@
         <v>0.5</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -2414,11 +2379,11 @@
       <c r="E36" s="5"/>
       <c r="F36" s="6"/>
       <c r="G36" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -2428,11 +2393,11 @@
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
       <c r="G37" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -2442,11 +2407,11 @@
       <c r="E38" s="5"/>
       <c r="F38" s="6"/>
       <c r="G38" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -2462,11 +2427,11 @@
         <v>0.5</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -2476,11 +2441,11 @@
       <c r="E40" s="5"/>
       <c r="F40" s="6"/>
       <c r="G40" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -2490,11 +2455,11 @@
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
       <c r="G41" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -2504,11 +2469,11 @@
       <c r="E42" s="5"/>
       <c r="F42" s="6"/>
       <c r="G42" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -2518,11 +2483,11 @@
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
       <c r="G43" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -2532,7 +2497,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="6"/>
       <c r="G44" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H44" s="8"/>
     </row>
@@ -2540,26 +2505,26 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -2571,7 +2536,7 @@
     <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2583,7 +2548,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2609,7 +2574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2633,7 +2598,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2657,7 +2622,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -2665,9 +2630,7 @@
       <c r="C5" s="4">
         <v>43639</v>
       </c>
-      <c r="D5" s="4">
-        <v>43639</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="14">
         <v>0.875</v>
       </c>
@@ -2679,7 +2642,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -2701,7 +2664,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -2723,7 +2686,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -2745,10 +2708,10 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4">
         <v>43641</v>
@@ -2767,7 +2730,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -2789,7 +2752,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2811,7 +2774,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -2833,7 +2796,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -2841,21 +2804,19 @@
       <c r="C13" s="4">
         <v>43644</v>
       </c>
-      <c r="D13" s="4">
-        <v>43649</v>
-      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="14">
         <v>0.875</v>
       </c>
       <c r="F13" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -2877,7 +2838,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2899,7 +2860,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -2921,7 +2882,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -2929,21 +2890,19 @@
       <c r="C17" s="4">
         <v>43644</v>
       </c>
-      <c r="D17" s="4">
-        <v>43649</v>
-      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="14">
         <v>0.875</v>
       </c>
       <c r="F17" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -2965,7 +2924,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2987,7 +2946,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -3005,11 +2964,11 @@
         <v>1</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -3017,21 +2976,19 @@
       <c r="C21" s="4">
         <v>43644</v>
       </c>
-      <c r="D21" s="4">
-        <v>43649</v>
-      </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="14">
         <v>0.875</v>
       </c>
       <c r="F21" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -3053,7 +3010,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3075,7 +3032,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -3097,7 +3054,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -3105,21 +3062,19 @@
       <c r="C25" s="4">
         <v>43644</v>
       </c>
-      <c r="D25" s="4">
-        <v>43649</v>
-      </c>
+      <c r="D25" s="4"/>
       <c r="E25" s="14">
         <v>0.875</v>
       </c>
       <c r="F25" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -3141,7 +3096,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -3163,7 +3118,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -3171,21 +3126,19 @@
       <c r="C28" s="4">
         <v>43644</v>
       </c>
-      <c r="D28" s="4">
-        <v>43647</v>
-      </c>
+      <c r="D28" s="4"/>
       <c r="E28" s="14">
         <v>0.875</v>
       </c>
       <c r="F28" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -3193,21 +3146,19 @@
       <c r="C29" s="4">
         <v>43644</v>
       </c>
-      <c r="D29" s="4">
-        <v>43647</v>
-      </c>
+      <c r="D29" s="4"/>
       <c r="E29" s="14">
         <v>0.875</v>
       </c>
       <c r="F29" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -3229,7 +3180,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -3237,21 +3188,19 @@
       <c r="C31" s="4">
         <v>43644</v>
       </c>
-      <c r="D31" s="4">
-        <v>43648</v>
-      </c>
+      <c r="D31" s="4"/>
       <c r="E31" s="14">
         <v>0.875</v>
       </c>
       <c r="F31" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -3273,7 +3222,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -3297,7 +3246,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -3319,7 +3268,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -3335,11 +3284,11 @@
         <v>0.6</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -3349,11 +3298,11 @@
       <c r="E36" s="4"/>
       <c r="F36" s="6"/>
       <c r="G36" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -3363,11 +3312,11 @@
       <c r="E37" s="4"/>
       <c r="F37" s="6"/>
       <c r="G37" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -3377,11 +3326,11 @@
       <c r="E38" s="4"/>
       <c r="F38" s="6"/>
       <c r="G38" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3391,11 +3340,11 @@
       <c r="E39" s="4"/>
       <c r="F39" s="6"/>
       <c r="G39" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -3405,11 +3354,11 @@
       <c r="E40" s="4"/>
       <c r="F40" s="6"/>
       <c r="G40" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -3419,11 +3368,11 @@
       <c r="E41" s="4"/>
       <c r="F41" s="6"/>
       <c r="G41" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -3433,11 +3382,11 @@
       <c r="E42" s="4"/>
       <c r="F42" s="6"/>
       <c r="G42" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -3447,11 +3396,11 @@
       <c r="E43" s="4"/>
       <c r="F43" s="6"/>
       <c r="G43" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -3461,7 +3410,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="6"/>
       <c r="G44" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H44" s="8"/>
     </row>
@@ -3471,19 +3420,19 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -3495,7 +3444,7 @@
     <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3507,7 +3456,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3533,7 +3482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3557,7 +3506,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3581,7 +3530,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -3601,7 +3550,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -3623,7 +3572,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -3645,7 +3594,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -3667,10 +3616,10 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4">
         <v>43641</v>
@@ -3682,14 +3631,14 @@
         <v>0.875</v>
       </c>
       <c r="F9" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -3711,7 +3660,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -3733,7 +3682,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -3755,7 +3704,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -3773,11 +3722,11 @@
         <v>1</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -3799,7 +3748,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -3821,7 +3770,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -3843,7 +3792,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -3858,14 +3807,14 @@
         <v>0.875</v>
       </c>
       <c r="F17" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -3887,7 +3836,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3909,29 +3858,21 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="4">
-        <v>43649</v>
-      </c>
-      <c r="D20" s="4">
-        <v>43649</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -3949,11 +3890,11 @@
         <v>0.5</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -3975,7 +3916,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3997,51 +3938,35 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="4">
-        <v>43649</v>
-      </c>
-      <c r="D24" s="4">
-        <v>43649</v>
-      </c>
-      <c r="E24" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="4">
-        <v>43649</v>
-      </c>
-      <c r="D25" s="4">
-        <v>43649</v>
-      </c>
-      <c r="E25" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -4051,11 +3976,11 @@
       <c r="E26" s="4"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -4065,33 +3990,25 @@
       <c r="E27" s="4"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="4">
-        <v>43645</v>
-      </c>
-      <c r="D28" s="4">
-        <v>43645</v>
-      </c>
-      <c r="E28" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1</v>
-      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -4109,55 +4026,39 @@
         <v>0.8</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="4">
-        <v>43648</v>
-      </c>
-      <c r="D30" s="4">
-        <v>43648</v>
-      </c>
-      <c r="E30" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="4">
-        <v>43648</v>
-      </c>
-      <c r="D31" s="4">
-        <v>43648</v>
-      </c>
-      <c r="E31" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -4165,21 +4066,15 @@
       <c r="C32" s="4">
         <v>43641</v>
       </c>
-      <c r="D32" s="4">
-        <v>43641</v>
-      </c>
-      <c r="E32" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="F32" s="6">
-        <v>1</v>
-      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -4203,7 +4098,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -4213,11 +4108,11 @@
       <c r="E34" s="4"/>
       <c r="F34" s="6"/>
       <c r="G34" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4233,11 +4128,11 @@
         <v>0.5</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4247,11 +4142,11 @@
       <c r="E36" s="4"/>
       <c r="F36" s="6"/>
       <c r="G36" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4261,11 +4156,11 @@
       <c r="E37" s="4"/>
       <c r="F37" s="6"/>
       <c r="G37" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4275,11 +4170,11 @@
       <c r="E38" s="4"/>
       <c r="F38" s="6"/>
       <c r="G38" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -4289,11 +4184,11 @@
       <c r="E39" s="4"/>
       <c r="F39" s="6"/>
       <c r="G39" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -4303,11 +4198,11 @@
       <c r="E40" s="4"/>
       <c r="F40" s="6"/>
       <c r="G40" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -4317,11 +4212,11 @@
       <c r="E41" s="4"/>
       <c r="F41" s="6"/>
       <c r="G41" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -4331,11 +4226,11 @@
       <c r="E42" s="4"/>
       <c r="F42" s="6"/>
       <c r="G42" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -4345,11 +4240,11 @@
       <c r="E43" s="4"/>
       <c r="F43" s="6"/>
       <c r="G43" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -4359,7 +4254,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="6"/>
       <c r="G44" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H44" s="8"/>
     </row>
@@ -4367,21 +4262,21 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -4393,7 +4288,7 @@
     <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -4405,7 +4300,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4431,7 +4326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -4455,7 +4350,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4479,7 +4374,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -4501,7 +4396,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -4523,7 +4418,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -4545,7 +4440,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -4567,10 +4462,10 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4">
         <v>76515</v>
@@ -4589,7 +4484,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -4611,7 +4506,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4633,7 +4528,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -4643,11 +4538,11 @@
       <c r="E12" s="4"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -4657,11 +4552,11 @@
       <c r="E13" s="4"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -4671,11 +4566,11 @@
       <c r="E14" s="4"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -4697,7 +4592,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -4707,11 +4602,11 @@
       <c r="E16" s="4"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -4721,11 +4616,11 @@
       <c r="E17" s="4"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -4735,11 +4630,11 @@
       <c r="E18" s="4"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -4761,7 +4656,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -4771,11 +4666,11 @@
       <c r="E20" s="4"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -4785,11 +4680,11 @@
       <c r="E21" s="4"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -4799,11 +4694,11 @@
       <c r="E22" s="4"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4825,7 +4720,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -4835,11 +4730,11 @@
       <c r="E24" s="4"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -4849,11 +4744,11 @@
       <c r="E25" s="4"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -4863,11 +4758,11 @@
       <c r="E26" s="4"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -4877,11 +4772,11 @@
       <c r="E27" s="4"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -4903,7 +4798,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -4913,17 +4808,17 @@
       <c r="E29" s="4"/>
       <c r="F29" s="6"/>
       <c r="G29" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="4">
-        <v>43649</v>
+        <v>43647</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="14">
@@ -4933,11 +4828,11 @@
         <v>0.5</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -4947,11 +4842,11 @@
       <c r="E31" s="4"/>
       <c r="F31" s="6"/>
       <c r="G31" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -4961,11 +4856,11 @@
       <c r="E32" s="4"/>
       <c r="F32" s="6"/>
       <c r="G32" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -4989,7 +4884,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -5011,7 +4906,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -5029,11 +4924,11 @@
         <v>0.5</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5055,7 +4950,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5077,7 +4972,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5087,11 +4982,11 @@
       <c r="E38" s="4"/>
       <c r="F38" s="6"/>
       <c r="G38" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -5109,11 +5004,11 @@
         <v>0.5</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -5131,11 +5026,11 @@
         <v>0.5</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5157,7 +5052,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5175,17 +5070,17 @@
         <v>1</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C43" s="4">
-        <v>43649</v>
+        <v>43647</v>
       </c>
       <c r="D43" s="4">
         <v>43647</v>
@@ -5197,11 +5092,11 @@
         <v>1</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -5211,7 +5106,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="6"/>
       <c r="G44" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H44" s="8"/>
     </row>
@@ -5219,21 +5114,21 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="21.125" customWidth="1"/>
@@ -5245,7 +5140,7 @@
     <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5257,7 +5152,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5283,7 +5178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -5309,7 +5204,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -5321,11 +5216,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -5347,7 +5242,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -5369,7 +5264,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -5379,11 +5274,11 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -5393,25 +5288,25 @@
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -5421,11 +5316,11 @@
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -5435,11 +5330,11 @@
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -5449,11 +5344,11 @@
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -5463,11 +5358,11 @@
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -5477,11 +5372,11 @@
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -5491,11 +5386,11 @@
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -5505,11 +5400,11 @@
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -5519,11 +5414,11 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -5533,11 +5428,11 @@
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -5547,11 +5442,11 @@
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -5561,11 +5456,11 @@
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -5575,11 +5470,11 @@
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -5589,11 +5484,11 @@
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -5603,11 +5498,11 @@
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -5617,11 +5512,11 @@
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -5631,11 +5526,11 @@
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -5645,11 +5540,11 @@
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -5659,11 +5554,11 @@
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -5673,11 +5568,11 @@
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
       <c r="G28" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -5687,11 +5582,11 @@
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
       <c r="G29" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -5701,11 +5596,11 @@
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -5715,11 +5610,11 @@
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
       <c r="G31" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -5729,11 +5624,11 @@
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
       <c r="G32" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -5759,7 +5654,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -5781,7 +5676,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="16.5">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -5799,11 +5694,11 @@
         <v>0.9</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="16.5">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5825,7 +5720,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5847,7 +5742,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="16.5">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5865,11 +5760,11 @@
         <v>0.9</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -5891,7 +5786,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -5913,21 +5808,29 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="6"/>
+      <c r="C41" s="4">
+        <v>43648</v>
+      </c>
+      <c r="D41" s="4">
+        <v>43649</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
       <c r="G41" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="16.5">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5945,25 +5848,29 @@
         <v>0.9</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="4"/>
+      <c r="C43" s="4">
+        <v>43650</v>
+      </c>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="6"/>
+      <c r="F43" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G43" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -5973,7 +5880,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="6"/>
       <c r="G44" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H44" s="8"/>
     </row>
@@ -5981,9 +5888,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5993,14 +5900,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="15.375" customWidth="1"/>
@@ -6011,7 +5918,7 @@
     <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -6023,7 +5930,7 @@
       <c r="G1" s="41"/>
       <c r="H1" s="42"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -6049,7 +5956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
@@ -6073,7 +5980,7 @@
       </c>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
@@ -6097,7 +6004,7 @@
       </c>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="22"/>
       <c r="B5" s="23" t="s">
         <v>14</v>
@@ -6119,7 +6026,7 @@
       </c>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="22"/>
       <c r="B6" s="23" t="s">
         <v>15</v>
@@ -6129,11 +6036,11 @@
       <c r="E6" s="24"/>
       <c r="F6" s="26"/>
       <c r="G6" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="29"/>
       <c r="B7" s="23" t="s">
         <v>16</v>
@@ -6143,11 +6050,11 @@
       <c r="E7" s="24"/>
       <c r="F7" s="26"/>
       <c r="G7" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="29"/>
       <c r="B8" s="23" t="s">
         <v>18</v>
@@ -6157,25 +6064,25 @@
       <c r="E8" s="24"/>
       <c r="F8" s="26"/>
       <c r="G8" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="29"/>
       <c r="B9" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="26"/>
       <c r="G9" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="28"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="29"/>
       <c r="B10" s="23" t="s">
         <v>21</v>
@@ -6185,11 +6092,11 @@
       <c r="E10" s="24"/>
       <c r="F10" s="26"/>
       <c r="G10" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="29"/>
       <c r="B11" s="23" t="s">
         <v>23</v>
@@ -6199,11 +6106,11 @@
       <c r="E11" s="24"/>
       <c r="F11" s="26"/>
       <c r="G11" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="29"/>
       <c r="B12" s="23" t="s">
         <v>24</v>
@@ -6213,11 +6120,11 @@
       <c r="E12" s="24"/>
       <c r="F12" s="26"/>
       <c r="G12" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="29"/>
       <c r="B13" s="23" t="s">
         <v>25</v>
@@ -6227,11 +6134,11 @@
       <c r="E13" s="24"/>
       <c r="F13" s="26"/>
       <c r="G13" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" s="28"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="29"/>
       <c r="B14" s="23" t="s">
         <v>26</v>
@@ -6241,11 +6148,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="26"/>
       <c r="G14" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="29"/>
       <c r="B15" s="23" t="s">
         <v>27</v>
@@ -6255,11 +6162,11 @@
       <c r="E15" s="24"/>
       <c r="F15" s="26"/>
       <c r="G15" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="29"/>
       <c r="B16" s="23" t="s">
         <v>28</v>
@@ -6269,11 +6176,11 @@
       <c r="E16" s="24"/>
       <c r="F16" s="26"/>
       <c r="G16" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" s="28"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="29"/>
       <c r="B17" s="23" t="s">
         <v>29</v>
@@ -6283,11 +6190,11 @@
       <c r="E17" s="24"/>
       <c r="F17" s="26"/>
       <c r="G17" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" s="28"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="29"/>
       <c r="B18" s="23" t="s">
         <v>30</v>
@@ -6297,11 +6204,11 @@
       <c r="E18" s="24"/>
       <c r="F18" s="26"/>
       <c r="G18" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="29"/>
       <c r="B19" s="23" t="s">
         <v>31</v>
@@ -6311,11 +6218,11 @@
       <c r="E19" s="24"/>
       <c r="F19" s="26"/>
       <c r="G19" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" s="28"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="29"/>
       <c r="B20" s="23" t="s">
         <v>32</v>
@@ -6325,11 +6232,11 @@
       <c r="E20" s="24"/>
       <c r="F20" s="26"/>
       <c r="G20" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="29"/>
       <c r="B21" s="23" t="s">
         <v>33</v>
@@ -6339,11 +6246,11 @@
       <c r="E21" s="24"/>
       <c r="F21" s="26"/>
       <c r="G21" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="28"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="29"/>
       <c r="B22" s="23" t="s">
         <v>34</v>
@@ -6353,11 +6260,11 @@
       <c r="E22" s="24"/>
       <c r="F22" s="26"/>
       <c r="G22" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="24"/>
       <c r="B23" s="23" t="s">
         <v>35</v>
@@ -6367,11 +6274,11 @@
       <c r="E23" s="24"/>
       <c r="F23" s="26"/>
       <c r="G23" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="29"/>
       <c r="B24" s="23" t="s">
         <v>36</v>
@@ -6381,11 +6288,11 @@
       <c r="E24" s="24"/>
       <c r="F24" s="26"/>
       <c r="G24" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H24" s="28"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="29"/>
       <c r="B25" s="23" t="s">
         <v>37</v>
@@ -6395,11 +6302,11 @@
       <c r="E25" s="24"/>
       <c r="F25" s="26"/>
       <c r="G25" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H25" s="28"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="29"/>
       <c r="B26" s="23" t="s">
         <v>38</v>
@@ -6409,11 +6316,11 @@
       <c r="E26" s="24"/>
       <c r="F26" s="26"/>
       <c r="G26" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26" s="28"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="29"/>
       <c r="B27" s="23" t="s">
         <v>39</v>
@@ -6423,11 +6330,11 @@
       <c r="E27" s="24"/>
       <c r="F27" s="26"/>
       <c r="G27" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H27" s="28"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="29"/>
       <c r="B28" s="23" t="s">
         <v>40</v>
@@ -6437,11 +6344,11 @@
       <c r="E28" s="24"/>
       <c r="F28" s="26"/>
       <c r="G28" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="s">
         <v>41</v>
@@ -6451,11 +6358,11 @@
       <c r="E29" s="24"/>
       <c r="F29" s="26"/>
       <c r="G29" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H29" s="28"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="29"/>
       <c r="B30" s="23" t="s">
         <v>42</v>
@@ -6465,11 +6372,11 @@
       <c r="E30" s="24"/>
       <c r="F30" s="26"/>
       <c r="G30" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H30" s="28"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="29"/>
       <c r="B31" s="23" t="s">
         <v>43</v>
@@ -6479,11 +6386,11 @@
       <c r="E31" s="24"/>
       <c r="F31" s="26"/>
       <c r="G31" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H31" s="28"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="29"/>
       <c r="B32" s="23" t="s">
         <v>44</v>
@@ -6493,11 +6400,11 @@
       <c r="E32" s="24"/>
       <c r="F32" s="26"/>
       <c r="G32" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H32" s="28"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="32" t="s">
         <v>45</v>
       </c>
@@ -6511,17 +6418,17 @@
         <v>43645</v>
       </c>
       <c r="E33" s="25">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="F33" s="26">
         <v>1</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="H33" s="28"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="32"/>
       <c r="B34" s="23" t="s">
         <v>47</v>
@@ -6539,11 +6446,11 @@
         <v>1</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="22"/>
       <c r="B35" s="23" t="s">
         <v>48</v>
@@ -6561,11 +6468,11 @@
         <v>1</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="H35" s="28"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="22"/>
       <c r="B36" s="23" t="s">
         <v>49</v>
@@ -6577,17 +6484,17 @@
         <v>43646</v>
       </c>
       <c r="E36" s="25">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="F36" s="26">
         <v>0.5</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H36" s="28"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="22"/>
       <c r="B37" s="23" t="s">
         <v>50</v>
@@ -6599,17 +6506,17 @@
         <v>43647</v>
       </c>
       <c r="E37" s="25">
-        <v>0.83333333333333337</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="F37" s="26">
         <v>0.7</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H37" s="28"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="22"/>
       <c r="B38" s="23" t="s">
         <v>51</v>
@@ -6627,11 +6534,11 @@
         <v>0.7</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H38" s="28"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="22"/>
       <c r="B39" s="23" t="s">
         <v>52</v>
@@ -6649,39 +6556,55 @@
         <v>1</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="H39" s="28"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="23"/>
       <c r="B40" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="26"/>
+      <c r="C40" s="24">
+        <v>43649</v>
+      </c>
+      <c r="D40" s="24">
+        <v>43649</v>
+      </c>
+      <c r="E40" s="25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F40" s="26">
+        <v>1</v>
+      </c>
       <c r="G40" s="27" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="23"/>
       <c r="B41" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="26"/>
+      <c r="C41" s="24">
+        <v>43649</v>
+      </c>
+      <c r="D41" s="24">
+        <v>43649</v>
+      </c>
+      <c r="E41" s="25">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F41" s="26">
+        <v>0.7</v>
+      </c>
       <c r="G41" s="27" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="H41" s="28"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="23"/>
       <c r="B42" s="23" t="s">
         <v>51</v>
@@ -6691,11 +6614,11 @@
       <c r="E42" s="24"/>
       <c r="F42" s="26"/>
       <c r="G42" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="33"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -6705,11 +6628,11 @@
       <c r="E43" s="24"/>
       <c r="F43" s="26"/>
       <c r="G43" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H43" s="28"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="32" t="s">
         <v>57</v>
       </c>
@@ -6719,7 +6642,7 @@
       <c r="E44" s="24"/>
       <c r="F44" s="26"/>
       <c r="G44" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H44" s="28"/>
     </row>
@@ -6727,21 +6650,21 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -6753,7 +6676,7 @@
     <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -6765,7 +6688,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6791,7 +6714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -6815,7 +6738,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -6839,7 +6762,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -6861,7 +6784,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -6883,7 +6806,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -6905,7 +6828,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -6915,25 +6838,25 @@
       <c r="E8" s="4"/>
       <c r="F8" s="6"/>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -6943,11 +6866,11 @@
       <c r="E10" s="4"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -6957,11 +6880,11 @@
       <c r="E11" s="4"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -6971,11 +6894,11 @@
       <c r="E12" s="4"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -6985,11 +6908,11 @@
       <c r="E13" s="4"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -6999,11 +6922,11 @@
       <c r="E14" s="4"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7013,11 +6936,11 @@
       <c r="E15" s="4"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -7027,11 +6950,11 @@
       <c r="E16" s="4"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -7041,11 +6964,11 @@
       <c r="E17" s="4"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -7055,11 +6978,11 @@
       <c r="E18" s="4"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7069,11 +6992,11 @@
       <c r="E19" s="4"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -7083,11 +7006,11 @@
       <c r="E20" s="4"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -7097,11 +7020,11 @@
       <c r="E21" s="4"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -7111,11 +7034,11 @@
       <c r="E22" s="4"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7125,11 +7048,11 @@
       <c r="E23" s="4"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -7139,11 +7062,11 @@
       <c r="E24" s="4"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -7153,11 +7076,11 @@
       <c r="E25" s="4"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -7167,11 +7090,11 @@
       <c r="E26" s="4"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -7181,11 +7104,11 @@
       <c r="E27" s="4"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -7195,11 +7118,11 @@
       <c r="E28" s="4"/>
       <c r="F28" s="6"/>
       <c r="G28" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -7209,11 +7132,11 @@
       <c r="E29" s="4"/>
       <c r="F29" s="6"/>
       <c r="G29" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -7223,11 +7146,11 @@
       <c r="E30" s="4"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -7237,11 +7160,11 @@
       <c r="E31" s="4"/>
       <c r="F31" s="6"/>
       <c r="G31" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -7251,11 +7174,11 @@
       <c r="E32" s="4"/>
       <c r="F32" s="6"/>
       <c r="G32" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -7279,7 +7202,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -7289,11 +7212,11 @@
       <c r="E34" s="4"/>
       <c r="F34" s="6"/>
       <c r="G34" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7315,7 +7238,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -7337,7 +7260,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -7347,11 +7270,11 @@
       <c r="E37" s="4"/>
       <c r="F37" s="6"/>
       <c r="G37" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -7373,7 +7296,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7395,7 +7318,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -7417,7 +7340,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -7427,11 +7350,11 @@
       <c r="E41" s="4"/>
       <c r="F41" s="6"/>
       <c r="G41" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -7453,7 +7376,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -7471,11 +7394,11 @@
         <v>0.6</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -7485,7 +7408,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="6"/>
       <c r="G44" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H44" s="8"/>
     </row>
@@ -7493,21 +7416,21 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -7519,7 +7442,7 @@
     <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -7531,7 +7454,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7557,7 +7480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -7581,7 +7504,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -7605,7 +7528,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -7627,21 +7550,29 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="4">
+        <v>43638</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43640</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -7651,11 +7582,11 @@
       <c r="E7" s="4"/>
       <c r="F7" s="6"/>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -7665,25 +7596,25 @@
       <c r="E8" s="4"/>
       <c r="F8" s="6"/>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -7693,11 +7624,11 @@
       <c r="E10" s="4"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -7707,11 +7638,11 @@
       <c r="E11" s="4"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -7721,11 +7652,11 @@
       <c r="E12" s="4"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -7735,11 +7666,11 @@
       <c r="E13" s="4"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -7749,11 +7680,11 @@
       <c r="E14" s="4"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7763,11 +7694,11 @@
       <c r="E15" s="4"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -7777,11 +7708,11 @@
       <c r="E16" s="4"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -7791,11 +7722,11 @@
       <c r="E17" s="4"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -7805,11 +7736,11 @@
       <c r="E18" s="4"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7819,11 +7750,11 @@
       <c r="E19" s="4"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -7833,11 +7764,11 @@
       <c r="E20" s="4"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -7847,11 +7778,11 @@
       <c r="E21" s="4"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -7861,11 +7792,11 @@
       <c r="E22" s="4"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7875,11 +7806,11 @@
       <c r="E23" s="4"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -7889,11 +7820,11 @@
       <c r="E24" s="4"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -7903,11 +7834,11 @@
       <c r="E25" s="4"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -7917,11 +7848,11 @@
       <c r="E26" s="4"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -7931,11 +7862,11 @@
       <c r="E27" s="4"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -7945,11 +7876,11 @@
       <c r="E28" s="4"/>
       <c r="F28" s="6"/>
       <c r="G28" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -7959,11 +7890,11 @@
       <c r="E29" s="4"/>
       <c r="F29" s="6"/>
       <c r="G29" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -7973,11 +7904,11 @@
       <c r="E30" s="4"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -7987,11 +7918,11 @@
       <c r="E31" s="4"/>
       <c r="F31" s="6"/>
       <c r="G31" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -8001,11 +7932,11 @@
       <c r="E32" s="4"/>
       <c r="F32" s="6"/>
       <c r="G32" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -8029,7 +7960,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -8039,11 +7970,11 @@
       <c r="E34" s="4"/>
       <c r="F34" s="6"/>
       <c r="G34" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -8065,7 +7996,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -8087,7 +8018,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -8105,11 +8036,11 @@
         <v>0.5</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -8131,58 +8062,82 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="6"/>
+      <c r="C39" s="4">
+        <v>43644</v>
+      </c>
+      <c r="D39" s="4">
+        <v>43644</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
       <c r="G39" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="6"/>
+      <c r="C40" s="4">
+        <v>43644</v>
+      </c>
+      <c r="D40" s="4">
+        <v>43644</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
       <c r="G40" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="6"/>
+      <c r="C41" s="4">
+        <v>43645</v>
+      </c>
+      <c r="D41" s="4">
+        <v>43645</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G41" s="7" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="4">
-        <v>43644</v>
+        <v>43648</v>
       </c>
       <c r="D42" s="4">
-        <v>43644</v>
+        <v>43648</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>62</v>
@@ -8195,21 +8150,29 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="6"/>
+      <c r="C43" s="4">
+        <v>43646</v>
+      </c>
+      <c r="D43" s="4">
+        <v>43646</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
       <c r="G43" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -8219,7 +8182,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="6"/>
       <c r="G44" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H44" s="8"/>
     </row>
@@ -8227,21 +8190,21 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -8261,7 +8224,7 @@
     <col min="28" max="28" width="71.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -8273,7 +8236,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
       <c r="U1" s="39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V1" s="39"/>
       <c r="W1" s="39"/>
@@ -8283,7 +8246,7 @@
       <c r="AA1" s="39"/>
       <c r="AB1" s="39"/>
     </row>
-    <row r="2" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8333,7 +8296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -8369,19 +8332,19 @@
         <v>43592</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z3" s="6">
         <v>1</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -8393,12 +8356,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="8"/>
       <c r="U4" s="17"/>
       <c r="V4" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
@@ -8407,11 +8370,11 @@
         <v>0</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -8430,11 +8393,11 @@
         <v>11</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U5" s="17"/>
       <c r="V5" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
@@ -8443,13 +8406,13 @@
         <v>0</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB5" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -8468,13 +8431,13 @@
         <v>11</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
@@ -8483,13 +8446,13 @@
         <v>0</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="24" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -8499,12 +8462,12 @@
       <c r="E7" s="4"/>
       <c r="F7" s="6"/>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="8"/>
       <c r="U7" s="18"/>
       <c r="V7" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" s="4">
         <v>43592</v>
@@ -8513,17 +8476,17 @@
         <v>43592</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z7" s="6">
         <v>1</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" spans="1:28" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -8533,14 +8496,14 @@
       <c r="E8" s="4"/>
       <c r="F8" s="6"/>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="8"/>
       <c r="U8" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
@@ -8549,26 +8512,26 @@
         <v>0</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="8"/>
       <c r="U9" s="9"/>
       <c r="V9" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
@@ -8577,11 +8540,11 @@
         <v>0</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB9" s="8"/>
     </row>
-    <row r="10" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -8591,12 +8554,12 @@
       <c r="E10" s="4"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" s="8"/>
       <c r="U10" s="19"/>
       <c r="V10" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
@@ -8605,11 +8568,11 @@
         <v>0</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -8619,12 +8582,12 @@
       <c r="E11" s="4"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" s="8"/>
       <c r="U11" s="2"/>
       <c r="V11" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
@@ -8633,11 +8596,11 @@
         <v>0</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB11" s="8"/>
     </row>
-    <row r="12" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -8647,12 +8610,12 @@
       <c r="E12" s="4"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" s="8"/>
       <c r="U12" s="19"/>
       <c r="V12" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
@@ -8661,11 +8624,11 @@
         <v>0</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB12" s="8"/>
     </row>
-    <row r="13" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -8675,14 +8638,14 @@
       <c r="E13" s="4"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" s="8"/>
       <c r="U13" s="19" t="s">
         <v>57</v>
       </c>
       <c r="V13" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
@@ -8691,13 +8654,13 @@
         <v>0</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB13" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -8707,11 +8670,11 @@
       <c r="E14" s="4"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -8721,11 +8684,11 @@
       <c r="E15" s="4"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -8735,11 +8698,11 @@
       <c r="E16" s="4"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -8749,11 +8712,11 @@
       <c r="E17" s="4"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -8763,11 +8726,11 @@
       <c r="E18" s="4"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -8777,11 +8740,11 @@
       <c r="E19" s="4"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -8791,11 +8754,11 @@
       <c r="E20" s="4"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -8805,11 +8768,11 @@
       <c r="E21" s="4"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -8819,11 +8782,11 @@
       <c r="E22" s="4"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -8833,11 +8796,11 @@
       <c r="E23" s="4"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -8847,11 +8810,11 @@
       <c r="E24" s="4"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -8861,11 +8824,11 @@
       <c r="E25" s="4"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -8875,11 +8838,11 @@
       <c r="E26" s="4"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -8889,11 +8852,11 @@
       <c r="E27" s="4"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -8903,11 +8866,11 @@
       <c r="E28" s="4"/>
       <c r="F28" s="6"/>
       <c r="G28" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -8917,11 +8880,11 @@
       <c r="E29" s="4"/>
       <c r="F29" s="6"/>
       <c r="G29" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -8931,11 +8894,11 @@
       <c r="E30" s="4"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -8945,11 +8908,11 @@
       <c r="E31" s="4"/>
       <c r="F31" s="6"/>
       <c r="G31" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -8959,11 +8922,11 @@
       <c r="E32" s="4"/>
       <c r="F32" s="6"/>
       <c r="G32" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -8984,10 +8947,10 @@
         <v>11</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -8997,11 +8960,11 @@
       <c r="E34" s="4"/>
       <c r="F34" s="6"/>
       <c r="G34" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -9015,11 +8978,11 @@
         <v>0.5</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -9029,11 +8992,11 @@
       <c r="E36" s="4"/>
       <c r="F36" s="6"/>
       <c r="G36" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -9043,11 +9006,11 @@
       <c r="E37" s="4"/>
       <c r="F37" s="6"/>
       <c r="G37" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -9057,11 +9020,11 @@
       <c r="E38" s="4"/>
       <c r="F38" s="6"/>
       <c r="G38" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -9071,11 +9034,11 @@
       <c r="E39" s="4"/>
       <c r="F39" s="6"/>
       <c r="G39" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -9085,11 +9048,11 @@
       <c r="E40" s="4"/>
       <c r="F40" s="6"/>
       <c r="G40" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -9099,11 +9062,11 @@
       <c r="E41" s="4"/>
       <c r="F41" s="6"/>
       <c r="G41" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -9113,11 +9076,11 @@
       <c r="E42" s="4"/>
       <c r="F42" s="6"/>
       <c r="G42" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -9127,11 +9090,11 @@
       <c r="E43" s="4"/>
       <c r="F43" s="6"/>
       <c r="G43" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="12" t="s">
         <v>57</v>
       </c>
@@ -9141,7 +9104,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="6"/>
       <c r="G44" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H44" s="8"/>
     </row>
@@ -9150,7 +9113,7 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="U1:AB1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XJT17\Desktop\rj_01_test\hgkj_01\梁卫鸿\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5A3E7B-24C1-4A87-8361-D717405CB04B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -316,7 +322,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="[$-804]yyyy\-m\-d"/>
     <numFmt numFmtId="177" formatCode="[$-804]h:mm"/>
@@ -341,18 +347,21 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -365,18 +374,21 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="30"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -384,12 +396,14 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="49"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -402,11 +416,13 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -632,10 +648,18 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -896,26 +920,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="30.375" customWidth="1"/>
-    <col min="8" max="8" width="99.875" customWidth="1"/>
+    <col min="7" max="7" width="30.36328125" customWidth="1"/>
+    <col min="8" max="8" width="99.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -927,7 +951,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="28">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1798,26 +1822,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1939,7 +1963,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1953,7 +1977,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1967,7 +1991,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -1995,7 +2019,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2051,7 +2075,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2107,7 +2131,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2163,7 +2187,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2349,7 +2373,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -2369,7 +2393,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -2383,7 +2407,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -2397,7 +2421,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -2411,7 +2435,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -2431,7 +2455,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -2445,7 +2469,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -2459,7 +2483,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -2507,36 +2531,36 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2664,7 +2688,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -2686,7 +2710,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -2708,7 +2732,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -2752,7 +2776,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2838,7 +2862,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2924,7 +2948,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3010,7 +3034,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3268,7 +3292,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -3288,7 +3312,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -3302,7 +3326,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -3316,7 +3340,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -3330,7 +3354,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3344,7 +3368,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -3358,7 +3382,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -3372,7 +3396,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -3425,26 +3449,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3572,7 +3596,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -3594,7 +3618,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -3616,7 +3640,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -3660,7 +3684,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -3748,7 +3772,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -3836,7 +3860,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3916,7 +3940,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4112,7 +4136,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4132,7 +4156,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4146,7 +4170,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4160,7 +4184,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4174,7 +4198,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -4188,7 +4212,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -4202,7 +4226,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -4216,7 +4240,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -4269,26 +4293,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -4418,7 +4442,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -4440,7 +4464,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -4462,7 +4486,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -4506,7 +4530,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4533,10 +4557,16 @@
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <v>43650</v>
+      </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.2</v>
+      </c>
       <c r="G12" s="7" t="s">
         <v>20</v>
       </c>
@@ -4570,7 +4600,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -4634,7 +4664,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -4698,7 +4728,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4818,17 +4848,19 @@
         <v>42</v>
       </c>
       <c r="C30" s="4">
-        <v>43647</v>
-      </c>
-      <c r="D30" s="4"/>
+        <v>43650</v>
+      </c>
+      <c r="D30" s="4">
+        <v>43650</v>
+      </c>
       <c r="E30" s="14">
         <v>0.875</v>
       </c>
       <c r="F30" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H30" s="8"/>
     </row>
@@ -4906,7 +4938,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4928,7 +4960,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4950,7 +4982,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4972,7 +5004,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4986,7 +5018,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -5008,7 +5040,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -5030,7 +5062,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5052,7 +5084,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5121,26 +5153,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5278,7 +5310,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -5676,7 +5708,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -5698,7 +5730,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5720,7 +5752,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5742,7 +5774,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5808,7 +5840,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5830,7 +5862,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5890,7 +5922,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5900,25 +5932,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -6040,7 +6072,7 @@
       </c>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="29"/>
       <c r="B7" s="23" t="s">
         <v>16</v>
@@ -6054,7 +6086,7 @@
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="29"/>
       <c r="B8" s="23" t="s">
         <v>18</v>
@@ -6068,7 +6100,7 @@
       </c>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="29"/>
       <c r="B9" s="23" t="s">
         <v>19</v>
@@ -6096,7 +6128,7 @@
       </c>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="29"/>
       <c r="B11" s="23" t="s">
         <v>23</v>
@@ -6152,7 +6184,7 @@
       </c>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="29"/>
       <c r="B15" s="23" t="s">
         <v>27</v>
@@ -6208,7 +6240,7 @@
       </c>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="29"/>
       <c r="B19" s="23" t="s">
         <v>31</v>
@@ -6264,7 +6296,7 @@
       </c>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="24"/>
       <c r="B23" s="23" t="s">
         <v>35</v>
@@ -6450,7 +6482,7 @@
       </c>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="22"/>
       <c r="B35" s="23" t="s">
         <v>48</v>
@@ -6472,7 +6504,7 @@
       </c>
       <c r="H35" s="28"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="22"/>
       <c r="B36" s="23" t="s">
         <v>49</v>
@@ -6494,7 +6526,7 @@
       </c>
       <c r="H36" s="28"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="22"/>
       <c r="B37" s="23" t="s">
         <v>50</v>
@@ -6516,7 +6548,7 @@
       </c>
       <c r="H37" s="28"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="22"/>
       <c r="B38" s="23" t="s">
         <v>51</v>
@@ -6538,7 +6570,7 @@
       </c>
       <c r="H38" s="28"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="22"/>
       <c r="B39" s="23" t="s">
         <v>52</v>
@@ -6560,7 +6592,7 @@
       </c>
       <c r="H39" s="28"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="23"/>
       <c r="B40" s="23" t="s">
         <v>54</v>
@@ -6582,7 +6614,7 @@
       </c>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="23"/>
       <c r="B41" s="23" t="s">
         <v>55</v>
@@ -6604,7 +6636,7 @@
       </c>
       <c r="H41" s="28"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="23"/>
       <c r="B42" s="23" t="s">
         <v>51</v>
@@ -6657,26 +6689,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -6806,7 +6838,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -6828,7 +6860,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -6842,7 +6874,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -6870,7 +6902,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -6926,7 +6958,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -6982,7 +7014,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7038,7 +7070,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7216,7 +7248,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7238,7 +7270,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -7260,7 +7292,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -7274,7 +7306,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -7296,7 +7328,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7318,7 +7350,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -7340,7 +7372,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -7354,7 +7386,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -7423,26 +7455,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -7572,7 +7604,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -7586,7 +7618,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -7600,7 +7632,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -7628,7 +7660,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -7684,7 +7716,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7740,7 +7772,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7796,7 +7828,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7974,7 +8006,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7996,7 +8028,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -8018,7 +8050,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -8040,7 +8072,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -8062,7 +8094,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -8084,7 +8116,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -8106,7 +8138,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -8128,7 +8160,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -8197,34 +8229,34 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
     <col min="9" max="21" width="9" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
-    <col min="23" max="23" width="17.125" customWidth="1"/>
-    <col min="24" max="24" width="18.5" customWidth="1"/>
-    <col min="25" max="25" width="26.375" customWidth="1"/>
-    <col min="26" max="26" width="21.875" customWidth="1"/>
-    <col min="27" max="27" width="38.125" customWidth="1"/>
-    <col min="28" max="28" width="71.75" customWidth="1"/>
+    <col min="23" max="23" width="17.08984375" customWidth="1"/>
+    <col min="24" max="24" width="18.453125" customWidth="1"/>
+    <col min="25" max="25" width="26.36328125" customWidth="1"/>
+    <col min="26" max="26" width="21.90625" customWidth="1"/>
+    <col min="27" max="27" width="38.08984375" customWidth="1"/>
+    <col min="28" max="28" width="71.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="33.75">
+    <row r="1" spans="1:28" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -8374,7 +8406,7 @@
       </c>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="16.5">
+    <row r="5" spans="1:28" ht="26">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -8452,7 +8484,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="24">
+    <row r="7" spans="1:28" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -8486,7 +8518,7 @@
       </c>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" spans="1:28" ht="24">
+    <row r="8" spans="1:28" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -8516,7 +8548,7 @@
       </c>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:28" ht="16.5">
+    <row r="9" spans="1:28" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -8572,7 +8604,7 @@
       </c>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" spans="1:28" ht="16.5">
+    <row r="11" spans="1:28" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -8674,7 +8706,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:28" ht="16.5">
+    <row r="15" spans="1:28" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -8730,7 +8762,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -8786,7 +8818,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -8964,7 +8996,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -8982,7 +9014,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -8996,7 +9028,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -9010,7 +9042,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -9024,7 +9056,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -9038,7 +9070,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -9052,7 +9084,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -9066,7 +9098,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>

--- a/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XJT17\Desktop\rj_01_test\hgkj_01\梁卫鸿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5A3E7B-24C1-4A87-8361-D717405CB04B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1959C5D0-304F-4613-8257-16ECA9D83FBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="90">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -312,6 +312,10 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -4296,8 +4300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4946,9 +4950,7 @@
       <c r="C35" s="4">
         <v>43641</v>
       </c>
-      <c r="D35" s="4">
-        <v>43641</v>
-      </c>
+      <c r="D35" s="4"/>
       <c r="E35" s="14">
         <v>0.875</v>
       </c>
@@ -5009,10 +5011,16 @@
       <c r="B38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="4">
+        <v>43650</v>
+      </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="6"/>
+      <c r="E38" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.7</v>
+      </c>
       <c r="G38" s="7" t="s">
         <v>20</v>
       </c>
@@ -5026,9 +5034,7 @@
       <c r="C39" s="4">
         <v>43641</v>
       </c>
-      <c r="D39" s="4">
-        <v>43641</v>
-      </c>
+      <c r="D39" s="4"/>
       <c r="E39" s="14">
         <v>0.875</v>
       </c>
@@ -5049,16 +5055,16 @@
         <v>43641</v>
       </c>
       <c r="D40" s="4">
-        <v>43641</v>
+        <v>43648</v>
       </c>
       <c r="E40" s="14">
         <v>0.875</v>
       </c>
       <c r="F40" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H40" s="8"/>
     </row>
@@ -5092,17 +5098,15 @@
       <c r="C42" s="4">
         <v>43645</v>
       </c>
-      <c r="D42" s="4">
-        <v>43645</v>
-      </c>
+      <c r="D42" s="4"/>
       <c r="E42" s="14">
         <v>0.875</v>
       </c>
       <c r="F42" s="6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="H42" s="8"/>
     </row>

--- a/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XJT17\Desktop\rj_01_test\hgkj_01\梁卫鸿\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1959C5D0-304F-4613-8257-16ECA9D83FBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -326,7 +320,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="[$-804]yyyy\-m\-d"/>
     <numFmt numFmtId="177" formatCode="[$-804]h:mm"/>
@@ -351,21 +345,18 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -378,21 +369,18 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="30"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -400,14 +388,12 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="49"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -420,13 +406,11 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -440,13 +424,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
+        <bgColor indexed="21"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="57"/>
-        <bgColor indexed="21"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -523,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -583,7 +567,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -652,18 +636,10 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -924,26 +900,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="30.36328125" customWidth="1"/>
-    <col min="8" max="8" width="99.90625" customWidth="1"/>
+    <col min="7" max="7" width="30.375" customWidth="1"/>
+    <col min="8" max="8" width="99.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -955,7 +931,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="28">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1826,26 +1802,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1967,7 +1943,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1981,7 +1957,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1995,7 +1971,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -2023,7 +1999,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2079,7 +2055,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2135,7 +2111,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2191,7 +2167,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2377,7 +2353,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -2397,7 +2373,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -2411,7 +2387,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -2425,7 +2401,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -2439,7 +2415,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -2459,7 +2435,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -2473,7 +2449,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -2487,7 +2463,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -2535,7 +2511,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2545,26 +2521,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2692,7 +2668,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -2714,7 +2690,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -2736,7 +2712,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -2780,7 +2756,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2866,7 +2842,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2952,7 +2928,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3038,7 +3014,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3296,7 +3272,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -3316,7 +3292,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -3330,7 +3306,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -3344,7 +3320,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -3358,7 +3334,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3372,7 +3348,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -3386,7 +3362,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -3400,7 +3376,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -3453,26 +3429,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3600,7 +3576,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -3622,7 +3598,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -3644,7 +3620,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -3688,7 +3664,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -3776,7 +3752,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -3864,7 +3840,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3944,7 +3920,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4140,7 +4116,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4160,7 +4136,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4174,7 +4150,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4188,7 +4164,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4202,7 +4178,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -4216,7 +4192,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -4230,7 +4206,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -4244,7 +4220,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -4297,26 +4273,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -4446,7 +4422,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -4468,7 +4444,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -4490,7 +4466,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -4534,7 +4510,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4604,7 +4580,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -4668,7 +4644,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -4732,7 +4708,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4942,7 +4918,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4962,7 +4938,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4984,7 +4960,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5006,7 +4982,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5026,7 +5002,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -5046,7 +5022,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -5068,7 +5044,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5090,7 +5066,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5157,26 +5133,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5314,7 +5290,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -5712,7 +5688,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="16.5">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -5727,14 +5703,14 @@
         <v>0.875</v>
       </c>
       <c r="F35" s="6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="16.5">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5756,7 +5732,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5778,7 +5754,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="16.5">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5793,10 +5769,10 @@
         <v>0.875</v>
       </c>
       <c r="F38" s="6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H38" s="8"/>
     </row>
@@ -5815,7 +5791,7 @@
         <v>0.875</v>
       </c>
       <c r="F39" s="6">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>11</v>
@@ -5844,7 +5820,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5866,7 +5842,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="16.5">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5881,10 +5857,10 @@
         <v>0.875</v>
       </c>
       <c r="F42" s="6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H42" s="8"/>
     </row>
@@ -5897,9 +5873,11 @@
         <v>43650</v>
       </c>
       <c r="D43" s="4"/>
-      <c r="E43" s="5"/>
+      <c r="E43" s="5">
+        <v>0.875</v>
+      </c>
       <c r="F43" s="6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>20</v>
@@ -5926,7 +5904,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5936,25 +5914,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -6076,7 +6054,7 @@
       </c>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="29"/>
       <c r="B7" s="23" t="s">
         <v>16</v>
@@ -6090,7 +6068,7 @@
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="29"/>
       <c r="B8" s="23" t="s">
         <v>18</v>
@@ -6104,7 +6082,7 @@
       </c>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="29"/>
       <c r="B9" s="23" t="s">
         <v>19</v>
@@ -6132,7 +6110,7 @@
       </c>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="29"/>
       <c r="B11" s="23" t="s">
         <v>23</v>
@@ -6188,7 +6166,7 @@
       </c>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="29"/>
       <c r="B15" s="23" t="s">
         <v>27</v>
@@ -6244,7 +6222,7 @@
       </c>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="29"/>
       <c r="B19" s="23" t="s">
         <v>31</v>
@@ -6300,7 +6278,7 @@
       </c>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="24"/>
       <c r="B23" s="23" t="s">
         <v>35</v>
@@ -6486,7 +6464,7 @@
       </c>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="22"/>
       <c r="B35" s="23" t="s">
         <v>48</v>
@@ -6508,7 +6486,7 @@
       </c>
       <c r="H35" s="28"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="22"/>
       <c r="B36" s="23" t="s">
         <v>49</v>
@@ -6530,7 +6508,7 @@
       </c>
       <c r="H36" s="28"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="22"/>
       <c r="B37" s="23" t="s">
         <v>50</v>
@@ -6552,7 +6530,7 @@
       </c>
       <c r="H37" s="28"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="22"/>
       <c r="B38" s="23" t="s">
         <v>51</v>
@@ -6574,7 +6552,7 @@
       </c>
       <c r="H38" s="28"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="22"/>
       <c r="B39" s="23" t="s">
         <v>52</v>
@@ -6596,7 +6574,7 @@
       </c>
       <c r="H39" s="28"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="23"/>
       <c r="B40" s="23" t="s">
         <v>54</v>
@@ -6618,7 +6596,7 @@
       </c>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="23"/>
       <c r="B41" s="23" t="s">
         <v>55</v>
@@ -6640,7 +6618,7 @@
       </c>
       <c r="H41" s="28"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="23"/>
       <c r="B42" s="23" t="s">
         <v>51</v>
@@ -6693,26 +6671,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -6842,7 +6820,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -6864,7 +6842,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -6878,7 +6856,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -6906,7 +6884,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -6962,7 +6940,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7018,7 +6996,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7074,7 +7052,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7252,7 +7230,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7274,7 +7252,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -7296,7 +7274,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -7310,7 +7288,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -7332,7 +7310,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7354,7 +7332,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -7376,7 +7354,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -7390,7 +7368,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -7459,26 +7437,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -7608,7 +7586,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -7622,7 +7600,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -7636,7 +7614,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -7664,7 +7642,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -7720,7 +7698,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7776,7 +7754,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7832,7 +7810,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -8010,7 +7988,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -8032,7 +8010,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -8054,7 +8032,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -8076,7 +8054,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -8098,7 +8076,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -8120,7 +8098,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -8142,7 +8120,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -8164,7 +8142,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -8233,34 +8211,34 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
     <col min="9" max="21" width="9" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
-    <col min="23" max="23" width="17.08984375" customWidth="1"/>
-    <col min="24" max="24" width="18.453125" customWidth="1"/>
-    <col min="25" max="25" width="26.36328125" customWidth="1"/>
-    <col min="26" max="26" width="21.90625" customWidth="1"/>
-    <col min="27" max="27" width="38.08984375" customWidth="1"/>
-    <col min="28" max="28" width="71.7265625" customWidth="1"/>
+    <col min="23" max="23" width="17.125" customWidth="1"/>
+    <col min="24" max="24" width="18.5" customWidth="1"/>
+    <col min="25" max="25" width="26.375" customWidth="1"/>
+    <col min="26" max="26" width="21.875" customWidth="1"/>
+    <col min="27" max="27" width="38.125" customWidth="1"/>
+    <col min="28" max="28" width="71.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="33">
+    <row r="1" spans="1:28" ht="33.75">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -8410,7 +8388,7 @@
       </c>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="26">
+    <row r="5" spans="1:28" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -8488,7 +8466,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="26">
+    <row r="7" spans="1:28" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -8522,7 +8500,7 @@
       </c>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" spans="1:28" ht="26">
+    <row r="8" spans="1:28" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -8552,7 +8530,7 @@
       </c>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:28" ht="26">
+    <row r="9" spans="1:28" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -8608,7 +8586,7 @@
       </c>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" spans="1:28" ht="26">
+    <row r="11" spans="1:28" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -8710,7 +8688,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:28" ht="26">
+    <row r="15" spans="1:28" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -8766,7 +8744,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -8822,7 +8800,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -9000,7 +8978,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -9018,7 +8996,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -9032,7 +9010,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -9046,7 +9024,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -9060,7 +9038,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -9074,7 +9052,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -9088,7 +9066,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -9102,7 +9080,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
